--- a/capiq_data/in_process_data/IQ283024.xlsx
+++ b/capiq_data/in_process_data/IQ283024.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FA80EA-5DED-4F63-BF78-7FE04CA801FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26FE24-3A25-4B2A-B508-2A34446EEB3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"c0481f5b-f0b6-43d4-8263-9097cd693dc2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"91ea84a1-9f53-4ed5-b921-584c104686b8"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>5.16</v>
+        <v>-19.622</v>
       </c>
       <c r="D2">
-        <v>456.72300000000001</v>
+        <v>580.60799999999995</v>
       </c>
       <c r="E2">
-        <v>227.7</v>
+        <v>152.16499999999999</v>
       </c>
       <c r="F2">
-        <v>181.33</v>
+        <v>214.215</v>
       </c>
       <c r="G2">
-        <v>601.60900000000004</v>
+        <v>536.07000000000005</v>
       </c>
       <c r="H2">
-        <v>8079.6379999999999</v>
+        <v>7801.72</v>
       </c>
       <c r="I2">
-        <v>187.95400000000001</v>
+        <v>154.654</v>
       </c>
       <c r="J2">
-        <v>2776.7330000000002</v>
+        <v>3457.8490000000002</v>
       </c>
       <c r="K2">
-        <v>226.7</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>782.846</v>
+        <v>814.13</v>
       </c>
       <c r="O2">
-        <v>5669.2650000000003</v>
+        <v>5685.7089999999998</v>
       </c>
       <c r="P2">
-        <v>3042.96</v>
+        <v>3534.674</v>
       </c>
       <c r="Q2">
-        <v>-3.544</v>
+        <v>3.4729999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>2409</v>
+        <v>8300</v>
       </c>
       <c r="T2">
-        <v>2410.373</v>
+        <v>2116.011</v>
       </c>
       <c r="U2">
-        <v>0.92800000000000005</v>
+        <v>8.7620000000000005</v>
       </c>
       <c r="V2">
-        <v>107.33499999999999</v>
+        <v>109.889</v>
       </c>
       <c r="W2">
-        <v>-32.755000000000003</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>56.253</v>
+        <v>-58.206000000000003</v>
       </c>
       <c r="Y2">
-        <v>9.3109999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-0.28000000000000003</v>
+        <v>47.942999999999998</v>
       </c>
       <c r="AA2">
-        <v>5.16</v>
+        <v>-19.622</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>31.584</v>
+        <v>4.45</v>
       </c>
       <c r="D3">
-        <v>481.72</v>
+        <v>558.67600000000004</v>
       </c>
       <c r="E3">
-        <v>204.434</v>
+        <v>91.34</v>
       </c>
       <c r="F3">
-        <v>210.185</v>
+        <v>197.18199999999999</v>
       </c>
       <c r="G3">
-        <v>575.89800000000002</v>
+        <v>358.50099999999998</v>
       </c>
       <c r="H3">
-        <v>8162.7560000000003</v>
+        <v>7576.1180000000004</v>
       </c>
       <c r="I3">
-        <v>178.87</v>
+        <v>118.101</v>
       </c>
       <c r="J3">
-        <v>2774.0439999999999</v>
+        <v>3440.6669999999999</v>
       </c>
       <c r="K3">
-        <v>305.33999999999997</v>
+        <v>77.53</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-11.917999999999999</v>
+        <v>-19.067</v>
       </c>
       <c r="N3">
-        <v>864.06</v>
+        <v>646.87300000000005</v>
       </c>
       <c r="O3">
-        <v>5726.7460000000001</v>
+        <v>5469.0990000000002</v>
       </c>
       <c r="P3">
-        <v>3106.2420000000002</v>
+        <v>3554.52</v>
       </c>
       <c r="Q3">
-        <v>2.415</v>
+        <v>5.4160000000000004</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2436.0100000000002</v>
+        <v>2107.0189999999998</v>
       </c>
       <c r="U3">
-        <v>3.343</v>
+        <v>14.178000000000001</v>
       </c>
       <c r="V3">
-        <v>95.376000000000005</v>
+        <v>58.847999999999999</v>
       </c>
       <c r="W3">
-        <v>-33.207999999999998</v>
+        <v>-25.401</v>
       </c>
       <c r="X3">
-        <v>59.112000000000002</v>
+        <v>16.596</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.38100000000000001</v>
+        <v>2.008</v>
       </c>
       <c r="AA3">
-        <v>31.584</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>44.128</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>524.89200000000005</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>269.05599999999998</v>
+        <v>130.071</v>
       </c>
       <c r="F4">
-        <v>234.66499999999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>664.298</v>
+        <v>521.36</v>
       </c>
       <c r="H4">
-        <v>8323.1479999999992</v>
+        <v>7628.7449999999999</v>
       </c>
       <c r="I4">
-        <v>173.22499999999999</v>
+        <v>119.012</v>
       </c>
       <c r="J4">
-        <v>2761.049</v>
+        <v>3416.1709999999998</v>
       </c>
       <c r="K4">
-        <v>471</v>
+        <v>146.38</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>972.08600000000001</v>
+        <v>763.26400000000001</v>
       </c>
       <c r="O4">
-        <v>5832.4390000000003</v>
+        <v>5565.4759999999997</v>
       </c>
       <c r="P4">
-        <v>3265.54</v>
+        <v>3595.0610000000001</v>
       </c>
       <c r="Q4">
-        <v>1.9390000000000001</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>2416</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2490.7089999999998</v>
+        <v>2063.2689999999998</v>
       </c>
       <c r="U4">
-        <v>5.282</v>
+        <v>66.766000000000005</v>
       </c>
       <c r="V4">
-        <v>-23.928999999999998</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-34.637999999999998</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>232.994</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.52800000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>44.128999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>134.94999999999999</v>
+        <v>35.976999999999997</v>
       </c>
       <c r="D5">
-        <v>678.15200000000004</v>
+        <v>513.49</v>
       </c>
       <c r="E5">
-        <v>252.04499999999999</v>
+        <v>121.098</v>
       </c>
       <c r="F5">
-        <v>340.78899999999999</v>
+        <v>270.98500000000001</v>
       </c>
       <c r="G5">
-        <v>604.91200000000003</v>
+        <v>441.55200000000002</v>
       </c>
       <c r="H5">
-        <v>8389.9030000000002</v>
+        <v>7470.8190000000004</v>
       </c>
       <c r="I5">
-        <v>152.465</v>
+        <v>102.768</v>
       </c>
       <c r="J5">
-        <v>2741.6039999999998</v>
+        <v>3282.9319999999998</v>
       </c>
       <c r="K5">
-        <v>391.9</v>
+        <v>113.423</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>887.84299999999996</v>
+        <v>786.02200000000005</v>
       </c>
       <c r="O5">
-        <v>5772.2349999999997</v>
+        <v>5406.9170000000004</v>
       </c>
       <c r="P5">
-        <v>3192.895</v>
+        <v>3521.9479999999999</v>
       </c>
       <c r="Q5">
-        <v>-0.68899999999999995</v>
+        <v>-2.2730000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>2433</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2617.6680000000001</v>
+        <v>2063.902</v>
       </c>
       <c r="U5">
-        <v>4.593</v>
+        <v>64.492999999999995</v>
       </c>
       <c r="V5">
-        <v>266.33</v>
+        <v>115.92100000000001</v>
       </c>
       <c r="W5">
-        <v>-34.779000000000003</v>
+        <v>-21.428000000000001</v>
       </c>
       <c r="X5">
-        <v>-107.473</v>
+        <v>-74.997</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>6.6760000000000002</v>
+        <v>4.774</v>
       </c>
       <c r="AA5">
-        <v>134.94999999999999</v>
+        <v>35.975999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>19.577000000000002</v>
+        <v>-31.114999999999998</v>
       </c>
       <c r="D6">
-        <v>486.22800000000001</v>
+        <v>370.06</v>
       </c>
       <c r="E6">
-        <v>226.428</v>
+        <v>96.823999999999998</v>
       </c>
       <c r="F6">
-        <v>196.809</v>
+        <v>169.42</v>
       </c>
       <c r="G6">
-        <v>633.58500000000004</v>
+        <v>526.90700000000004</v>
       </c>
       <c r="H6">
-        <v>8682.8510000000006</v>
+        <v>7633.152</v>
       </c>
       <c r="I6">
-        <v>187.428</v>
+        <v>122.968</v>
       </c>
       <c r="J6">
-        <v>2740.3919999999998</v>
+        <v>3219.1880000000001</v>
       </c>
       <c r="K6">
-        <v>286.3</v>
+        <v>222.3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>827.28700000000003</v>
+        <v>904.54100000000005</v>
       </c>
       <c r="O6">
-        <v>5882.11</v>
+        <v>5622.241</v>
       </c>
       <c r="P6">
-        <v>3138.33</v>
+        <v>3609.3829999999998</v>
       </c>
       <c r="Q6">
-        <v>-1.054</v>
+        <v>32.024999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2424</v>
+        <v>5600</v>
       </c>
       <c r="T6">
-        <v>2800.741</v>
+        <v>2010.9110000000001</v>
       </c>
       <c r="U6">
-        <v>3.5390000000000001</v>
+        <v>96.388000000000005</v>
       </c>
       <c r="V6">
-        <v>124.919</v>
+        <v>7.5880000000000001</v>
       </c>
       <c r="W6">
-        <v>-35.607999999999997</v>
+        <v>-21.507999999999999</v>
       </c>
       <c r="X6">
-        <v>56.798000000000002</v>
+        <v>43.207000000000001</v>
       </c>
       <c r="Y6">
-        <v>49.524000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.536</v>
+        <v>48.777000000000001</v>
       </c>
       <c r="AA6">
-        <v>19.577000000000002</v>
+        <v>-31.114999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>27.524000000000001</v>
+        <v>-746.52599999999995</v>
       </c>
       <c r="D7">
-        <v>475.67700000000002</v>
+        <v>317.23899999999998</v>
       </c>
       <c r="E7">
-        <v>197.82599999999999</v>
+        <v>102.209</v>
       </c>
       <c r="F7">
-        <v>191.97900000000001</v>
+        <v>135.36000000000001</v>
       </c>
       <c r="G7">
-        <v>631.851</v>
+        <v>510.72199999999998</v>
       </c>
       <c r="H7">
-        <v>8841.3909999999996</v>
+        <v>6467.6450000000004</v>
       </c>
       <c r="I7">
-        <v>202.154</v>
+        <v>123.83</v>
       </c>
       <c r="J7">
-        <v>2894.2249999999999</v>
+        <v>2520.8539999999998</v>
       </c>
       <c r="K7">
-        <v>281.66699999999997</v>
+        <v>397.7</v>
       </c>
       <c r="L7">
-        <v>-4.633</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-94.396000000000001</v>
+        <v>-136.02500000000001</v>
       </c>
       <c r="N7">
-        <v>873.34100000000001</v>
+        <v>1580.97</v>
       </c>
       <c r="O7">
-        <v>6052.4260000000004</v>
+        <v>5304.1620000000003</v>
       </c>
       <c r="P7">
-        <v>3224.2860000000001</v>
+        <v>3580.0360000000001</v>
       </c>
       <c r="Q7">
-        <v>0.187</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2788.9650000000001</v>
+        <v>1163.4829999999999</v>
       </c>
       <c r="U7">
-        <v>3.726</v>
+        <v>93.62</v>
       </c>
       <c r="V7">
-        <v>63.963000000000001</v>
+        <v>-1.4590000000000001</v>
       </c>
       <c r="W7">
-        <v>-38.884</v>
+        <v>-21.6</v>
       </c>
       <c r="X7">
-        <v>110.22199999999999</v>
+        <v>19.184999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-2.5019999999999998</v>
+        <v>14.128</v>
       </c>
       <c r="AA7">
-        <v>27.524000000000001</v>
+        <v>-746.52599999999995</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>62.734000000000002</v>
+        <v>9.2750000000000004</v>
       </c>
       <c r="D8">
-        <v>566.26199999999994</v>
+        <v>332.71499999999997</v>
       </c>
       <c r="E8">
-        <v>277.488</v>
+        <v>101.899</v>
       </c>
       <c r="F8">
-        <v>262.11200000000002</v>
+        <v>142.02000000000001</v>
       </c>
       <c r="G8">
-        <v>716.28499999999997</v>
+        <v>640.54200000000003</v>
       </c>
       <c r="H8">
-        <v>9042.8209999999999</v>
+        <v>6841.8239999999996</v>
       </c>
       <c r="I8">
-        <v>151.227</v>
+        <v>122.703</v>
       </c>
       <c r="J8">
-        <v>3042.4720000000002</v>
+        <v>3724.67</v>
       </c>
       <c r="K8">
-        <v>348.40699999999998</v>
+        <v>8.7680000000000007</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>850.79399999999998</v>
+        <v>659.45699999999999</v>
       </c>
       <c r="O8">
-        <v>6248.7070000000003</v>
+        <v>5721.83</v>
       </c>
       <c r="P8">
-        <v>3436.732</v>
+        <v>3851.4639999999999</v>
       </c>
       <c r="Q8">
-        <v>2.9279999999999999</v>
+        <v>3.5459999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2794.114</v>
+        <v>1119.9939999999999</v>
       </c>
       <c r="U8">
-        <v>6.6539999999999999</v>
+        <v>97.742999999999995</v>
       </c>
       <c r="V8">
-        <v>39.216000000000001</v>
+        <v>-8.9540000000000006</v>
       </c>
       <c r="W8">
-        <v>-39.826000000000001</v>
+        <v>-21.673999999999999</v>
       </c>
       <c r="X8">
-        <v>209.50399999999999</v>
+        <v>48.81</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-2.0030000000000001</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="AA8">
-        <v>62.734000000000002</v>
+        <v>9.2750000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>139.28100000000001</v>
+        <v>43.566000000000003</v>
       </c>
       <c r="D9">
-        <v>695.75800000000004</v>
+        <v>442.14499999999998</v>
       </c>
       <c r="E9">
-        <v>267.21800000000002</v>
+        <v>116.50700000000001</v>
       </c>
       <c r="F9">
-        <v>369.25099999999998</v>
+        <v>234.417</v>
       </c>
       <c r="G9">
-        <v>678.19200000000001</v>
+        <v>555.73299999999995</v>
       </c>
       <c r="H9">
-        <v>9136.51</v>
+        <v>6689.9840000000004</v>
       </c>
       <c r="I9">
-        <v>169.30600000000001</v>
+        <v>102.94499999999999</v>
       </c>
       <c r="J9">
-        <v>3061.6390000000001</v>
+        <v>3414.0859999999998</v>
       </c>
       <c r="K9">
-        <v>214.756</v>
+        <v>3.9689999999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>740.87099999999998</v>
+        <v>804.46100000000001</v>
       </c>
       <c r="O9">
-        <v>6237.7449999999999</v>
+        <v>5531.71</v>
       </c>
       <c r="P9">
-        <v>3359.9720000000002</v>
+        <v>3612.6460000000002</v>
       </c>
       <c r="Q9">
-        <v>-2.2749999999999999</v>
+        <v>52.372</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2898.7649999999999</v>
+        <v>1158.2739999999999</v>
       </c>
       <c r="U9">
-        <v>4.3789999999999996</v>
+        <v>150.494</v>
       </c>
       <c r="V9">
-        <v>350.77699999999999</v>
+        <v>197.37</v>
       </c>
       <c r="W9">
-        <v>-39.875999999999998</v>
+        <v>-21.736999999999998</v>
       </c>
       <c r="X9">
-        <v>-171.52699999999999</v>
+        <v>-122.54300000000001</v>
       </c>
       <c r="Y9">
-        <v>53.915999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-2.0449999999999999</v>
+        <v>-0.47499999999999998</v>
       </c>
       <c r="AA9">
-        <v>139.28100000000001</v>
+        <v>43.567</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>45.606999999999999</v>
+        <v>-99.316000000000003</v>
       </c>
       <c r="D10">
-        <v>523.77200000000005</v>
+        <v>331.05200000000002</v>
       </c>
       <c r="E10">
-        <v>224.43899999999999</v>
+        <v>49.201999999999998</v>
       </c>
       <c r="F10">
-        <v>339.53500000000003</v>
+        <v>152.63399999999999</v>
       </c>
       <c r="G10">
-        <v>643.07500000000005</v>
+        <v>1464.846</v>
       </c>
       <c r="H10">
-        <v>9265.2309999999998</v>
+        <v>6740.3249999999998</v>
       </c>
       <c r="I10">
-        <v>180.82499999999999</v>
+        <v>84.168000000000006</v>
       </c>
       <c r="J10">
-        <v>3042.0140000000001</v>
+        <v>2935.2620000000002</v>
       </c>
       <c r="K10">
-        <v>339.2</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>846.14099999999996</v>
+        <v>1247.1559999999999</v>
       </c>
       <c r="O10">
-        <v>6354.9759999999997</v>
+        <v>5759.6850000000004</v>
       </c>
       <c r="P10">
-        <v>3407.1559999999999</v>
+        <v>3226.556</v>
       </c>
       <c r="Q10">
-        <v>1.45</v>
+        <v>-30.372</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>2313</v>
+        <v>5500</v>
       </c>
       <c r="T10">
-        <v>2910.2550000000001</v>
+        <v>980.64</v>
       </c>
       <c r="U10">
-        <v>5.8289999999999997</v>
+        <v>113.04900000000001</v>
       </c>
       <c r="V10">
-        <v>145.15</v>
+        <v>37.975000000000001</v>
       </c>
       <c r="W10">
-        <v>-39.595999999999997</v>
+        <v>-8.5239999999999991</v>
       </c>
       <c r="X10">
-        <v>52.322000000000003</v>
+        <v>-19.251000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-2.1190000000000002</v>
+        <v>2.7069999999999999</v>
       </c>
       <c r="AA10">
-        <v>45.606999999999999</v>
+        <v>-99.316000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>51.143999999999998</v>
+        <v>123.92400000000001</v>
       </c>
       <c r="D11">
-        <v>546.21199999999999</v>
+        <v>345.43400000000003</v>
       </c>
       <c r="E11">
-        <v>226.25</v>
+        <v>52.48</v>
       </c>
       <c r="F11">
-        <v>266.50900000000001</v>
+        <v>161.184</v>
       </c>
       <c r="G11">
-        <v>623.678</v>
+        <v>1800.0360000000001</v>
       </c>
       <c r="H11">
-        <v>9390.4840000000004</v>
+        <v>6860.6620000000003</v>
       </c>
       <c r="I11">
-        <v>199.196</v>
+        <v>81.709000000000003</v>
       </c>
       <c r="J11">
-        <v>3263.953</v>
+        <v>2890.2269999999999</v>
       </c>
       <c r="K11">
-        <v>143.065</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="L11">
-        <v>-196.31800000000001</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-104.825</v>
+        <v>-79.963999999999999</v>
       </c>
       <c r="N11">
-        <v>726.24900000000002</v>
+        <v>1291.2919999999999</v>
       </c>
       <c r="O11">
-        <v>6466.8620000000001</v>
+        <v>5753.2449999999999</v>
       </c>
       <c r="P11">
-        <v>3434.739</v>
+        <v>3145.723</v>
       </c>
       <c r="Q11">
-        <v>-0.186</v>
+        <v>100.577</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>2290</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>2923.6219999999998</v>
+        <v>1107.4169999999999</v>
       </c>
       <c r="U11">
-        <v>5.6429999999999998</v>
+        <v>213.626</v>
       </c>
       <c r="V11">
-        <v>193.63399999999999</v>
+        <v>90.869</v>
       </c>
       <c r="W11">
-        <v>-39.963999999999999</v>
+        <v>-20.056999999999999</v>
       </c>
       <c r="X11">
-        <v>-93.18</v>
+        <v>-261.95499999999998</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>300.80099999999999</v>
       </c>
       <c r="AA11">
-        <v>51.143999999999998</v>
+        <v>123.92400000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>67.188999999999993</v>
+        <v>28.186</v>
       </c>
       <c r="D12">
-        <v>569.58900000000006</v>
+        <v>345.88499999999999</v>
       </c>
       <c r="E12">
-        <v>239.31899999999999</v>
+        <v>77.522000000000006</v>
       </c>
       <c r="F12">
-        <v>284.29000000000002</v>
+        <v>162.04599999999999</v>
       </c>
       <c r="G12">
-        <v>664.48099999999999</v>
+        <v>1637.0070000000001</v>
       </c>
       <c r="H12">
-        <v>9483.7450000000008</v>
+        <v>6708.9279999999999</v>
       </c>
       <c r="I12">
-        <v>149.68</v>
+        <v>96.501000000000005</v>
       </c>
       <c r="J12">
-        <v>3163.8449999999998</v>
+        <v>2839.8710000000001</v>
       </c>
       <c r="K12">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>887.33600000000001</v>
+        <v>1143.058</v>
       </c>
       <c r="O12">
-        <v>6544.0950000000003</v>
+        <v>5573.49</v>
       </c>
       <c r="P12">
-        <v>3601.6179999999999</v>
+        <v>3082.598</v>
       </c>
       <c r="Q12">
-        <v>-1.67</v>
+        <v>-77.855000000000004</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>2286</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>2939.65</v>
+        <v>1135.4380000000001</v>
       </c>
       <c r="U12">
-        <v>3.9729999999999999</v>
+        <v>135.77099999999999</v>
       </c>
       <c r="V12">
-        <v>37.676000000000002</v>
+        <v>6.71</v>
       </c>
       <c r="W12">
-        <v>-40.921999999999997</v>
+        <v>-12.6</v>
       </c>
       <c r="X12">
-        <v>161.33199999999999</v>
+        <v>-16.082999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>67.188000000000002</v>
+        <v>28.184999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>133.125</v>
+        <v>-81.067999999999998</v>
       </c>
       <c r="D13">
-        <v>694.97400000000005</v>
+        <v>438.16699999999997</v>
       </c>
       <c r="E13">
-        <v>266.53300000000002</v>
+        <v>93.156999999999996</v>
       </c>
       <c r="F13">
-        <v>377.72</v>
+        <v>230.37700000000001</v>
       </c>
       <c r="G13">
-        <v>694.27200000000005</v>
+        <v>1271.501</v>
       </c>
       <c r="H13">
-        <v>9605.8349999999991</v>
+        <v>6081.5339999999997</v>
       </c>
       <c r="I13">
-        <v>178.21299999999999</v>
+        <v>80.268000000000001</v>
       </c>
       <c r="J13">
-        <v>3163.8710000000001</v>
+        <v>2344.3220000000001</v>
       </c>
       <c r="K13">
-        <v>52.1</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>854.09500000000003</v>
+        <v>1159.559</v>
       </c>
       <c r="O13">
-        <v>6568.6350000000002</v>
+        <v>5050.027</v>
       </c>
       <c r="P13">
-        <v>3493.7350000000001</v>
+        <v>2673.6419999999998</v>
       </c>
       <c r="Q13">
-        <v>5.95</v>
+        <v>29.643000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>2279</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>3037.2</v>
+        <v>1031.5070000000001</v>
       </c>
       <c r="U13">
-        <v>9.923</v>
+        <v>165.41399999999999</v>
       </c>
       <c r="V13">
-        <v>321.8</v>
+        <v>107.04900000000001</v>
       </c>
       <c r="W13">
-        <v>-40.988999999999997</v>
+        <v>-12.375999999999999</v>
       </c>
       <c r="X13">
-        <v>-199.75399999999999</v>
+        <v>-316.86500000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-2.694</v>
+        <v>-300</v>
       </c>
       <c r="AA13">
-        <v>133.125</v>
+        <v>-81.066999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>41.061999999999998</v>
+        <v>13.968</v>
       </c>
       <c r="D14">
-        <v>559.87800000000004</v>
+        <v>331.65800000000002</v>
       </c>
       <c r="E14">
-        <v>250.036</v>
+        <v>80.399000000000001</v>
       </c>
       <c r="F14">
-        <v>269.67399999999998</v>
+        <v>145.85300000000001</v>
       </c>
       <c r="G14">
-        <v>706.82500000000005</v>
+        <v>1091.7059999999999</v>
       </c>
       <c r="H14">
-        <v>9597.1380000000008</v>
+        <v>5742.9750000000004</v>
       </c>
       <c r="I14">
-        <v>233.351</v>
+        <v>92.994</v>
       </c>
       <c r="J14">
-        <v>3163.76</v>
+        <v>2051.346</v>
       </c>
       <c r="K14">
-        <v>134.6</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>955.42600000000004</v>
+        <v>1011.336</v>
       </c>
       <c r="O14">
-        <v>6528.607</v>
+        <v>4706.2150000000001</v>
       </c>
       <c r="P14">
-        <v>3575.8389999999999</v>
+        <v>2238.2869999999998</v>
       </c>
       <c r="Q14">
-        <v>-5.4359999999999999</v>
+        <v>-85.855000000000004</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2302</v>
+        <v>2000</v>
       </c>
       <c r="T14">
-        <v>3068.5309999999999</v>
+        <v>1036.76</v>
       </c>
       <c r="U14">
-        <v>4.4870000000000001</v>
+        <v>79.558999999999997</v>
       </c>
       <c r="V14">
-        <v>149.69300000000001</v>
+        <v>-10.292</v>
       </c>
       <c r="W14">
-        <v>-41.029000000000003</v>
+        <v>-12.693</v>
       </c>
       <c r="X14">
-        <v>69.358000000000004</v>
+        <v>-286.23500000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-2.2530000000000001</v>
+        <v>801.84100000000001</v>
       </c>
       <c r="AA14">
-        <v>41.061999999999998</v>
+        <v>13.968</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>68.954999999999998</v>
+        <v>15.679</v>
       </c>
       <c r="D15">
-        <v>628.55600000000004</v>
+        <v>340.26299999999998</v>
       </c>
       <c r="E15">
-        <v>231.78200000000001</v>
+        <v>64.5</v>
       </c>
       <c r="F15">
-        <v>310.96899999999999</v>
+        <v>139.54300000000001</v>
       </c>
       <c r="G15">
-        <v>706.82399999999996</v>
+        <v>659.72199999999998</v>
       </c>
       <c r="H15">
-        <v>9710.4590000000007</v>
+        <v>5341.32</v>
       </c>
       <c r="I15">
-        <v>191.21600000000001</v>
+        <v>95.052999999999997</v>
       </c>
       <c r="J15">
-        <v>3135.9090000000001</v>
+        <v>1696.826</v>
       </c>
       <c r="K15">
-        <v>178.9</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M15">
-        <v>-28.943000000000001</v>
+        <v>-123.44199999999999</v>
       </c>
       <c r="N15">
-        <v>1011.907</v>
+        <v>721.30399999999997</v>
       </c>
       <c r="O15">
-        <v>6604.9549999999999</v>
+        <v>4085.779</v>
       </c>
       <c r="P15">
-        <v>3593.0650000000001</v>
+        <v>2136.346</v>
       </c>
       <c r="Q15">
-        <v>4.5780000000000003</v>
+        <v>275.71100000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3105.5039999999999</v>
+        <v>1255.5409999999999</v>
       </c>
       <c r="U15">
-        <v>9.0649999999999995</v>
+        <v>355.27</v>
       </c>
       <c r="V15">
-        <v>238.31200000000001</v>
+        <v>114.97799999999999</v>
       </c>
       <c r="W15">
-        <v>-41.591000000000001</v>
+        <v>-12.747999999999999</v>
       </c>
       <c r="X15">
-        <v>-17.696000000000002</v>
+        <v>78.284999999999997</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1.3620000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>68.954999999999998</v>
+        <v>15.679</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>53.472000000000001</v>
+        <v>13.978999999999999</v>
       </c>
       <c r="D16">
-        <v>612.66800000000001</v>
+        <v>358.43</v>
       </c>
       <c r="E16">
-        <v>259.20499999999998</v>
+        <v>88.620999999999995</v>
       </c>
       <c r="F16">
-        <v>290.517</v>
+        <v>157.80600000000001</v>
       </c>
       <c r="G16">
-        <v>748.15300000000002</v>
+        <v>664.87699999999995</v>
       </c>
       <c r="H16">
-        <v>9871.2420000000002</v>
+        <v>5397.7820000000002</v>
       </c>
       <c r="I16">
-        <v>171.16200000000001</v>
+        <v>91.769000000000005</v>
       </c>
       <c r="J16">
-        <v>3382.5250000000001</v>
+        <v>1723.9110000000001</v>
       </c>
       <c r="K16">
-        <v>343.3</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>859.654</v>
+        <v>685.05899999999997</v>
       </c>
       <c r="O16">
-        <v>6740.299</v>
+        <v>4112.5349999999999</v>
       </c>
       <c r="P16">
-        <v>3753.9229999999998</v>
+        <v>2110.5430000000001</v>
       </c>
       <c r="Q16">
-        <v>1.6859999999999999</v>
+        <v>-278.84500000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3130.9430000000002</v>
+        <v>1285.2470000000001</v>
       </c>
       <c r="U16">
-        <v>10.750999999999999</v>
+        <v>76.424999999999997</v>
       </c>
       <c r="V16">
-        <v>45.002000000000002</v>
+        <v>14.183</v>
       </c>
       <c r="W16">
-        <v>-42.828000000000003</v>
+        <v>-12.888</v>
       </c>
       <c r="X16">
-        <v>180.88399999999999</v>
+        <v>-222.95</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>5.6000000000000001E-2</v>
+        <v>-0.20799999999999999</v>
       </c>
       <c r="AA16">
-        <v>53.472999999999999</v>
+        <v>13.978999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>147.38300000000001</v>
+        <v>60.369</v>
       </c>
       <c r="D17">
-        <v>764.04</v>
+        <v>421.48899999999998</v>
       </c>
       <c r="E17">
-        <v>300.12</v>
+        <v>105.434</v>
       </c>
       <c r="F17">
-        <v>423.35199999999998</v>
+        <v>201.482</v>
       </c>
       <c r="G17">
-        <v>749.33799999999997</v>
+        <v>385.93200000000002</v>
       </c>
       <c r="H17">
-        <v>10073.664000000001</v>
+        <v>5120.29</v>
       </c>
       <c r="I17">
-        <v>194.66300000000001</v>
+        <v>101.666</v>
       </c>
       <c r="J17">
-        <v>3381.9949999999999</v>
+        <v>1659.383</v>
       </c>
       <c r="K17">
-        <v>202.4</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>801.03899999999999</v>
+        <v>433.07</v>
       </c>
       <c r="O17">
-        <v>6796.2870000000003</v>
+        <v>3788.3960000000002</v>
       </c>
       <c r="P17">
-        <v>3612.4859999999999</v>
+        <v>1730.3689999999999</v>
       </c>
       <c r="Q17">
-        <v>-4.9160000000000004</v>
+        <v>-38.097000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3277.377</v>
+        <v>1331.894</v>
       </c>
       <c r="U17">
-        <v>5.835</v>
+        <v>38.328000000000003</v>
       </c>
       <c r="V17">
-        <v>366.89800000000002</v>
+        <v>152.203</v>
       </c>
       <c r="W17">
-        <v>-42.945</v>
+        <v>-15.263</v>
       </c>
       <c r="X17">
-        <v>-170.29400000000001</v>
+        <v>-163.95</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-1.4179999999999999</v>
+        <v>11.347</v>
       </c>
       <c r="AA17">
-        <v>147.38200000000001</v>
+        <v>60.369</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>43.448999999999998</v>
+        <v>88.843000000000004</v>
       </c>
       <c r="D18">
-        <v>596.43899999999996</v>
+        <v>344.30799999999999</v>
       </c>
       <c r="E18">
-        <v>267.327</v>
+        <v>91.864999999999995</v>
       </c>
       <c r="F18">
-        <v>285.30200000000002</v>
+        <v>133.87</v>
       </c>
       <c r="G18">
-        <v>669.40300000000002</v>
+        <v>424.858</v>
       </c>
       <c r="H18">
-        <v>10288.906000000001</v>
+        <v>5001.1440000000002</v>
       </c>
       <c r="I18">
-        <v>219.351</v>
+        <v>105.593</v>
       </c>
       <c r="J18">
-        <v>3353.645</v>
+        <v>1639.9010000000001</v>
       </c>
       <c r="K18">
-        <v>257.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>849.63099999999997</v>
+        <v>422.29</v>
       </c>
       <c r="O18">
-        <v>6987.5990000000002</v>
+        <v>3591.8220000000001</v>
       </c>
       <c r="P18">
-        <v>3639.1779999999999</v>
+        <v>1704.9010000000001</v>
       </c>
       <c r="Q18">
-        <v>-1.2789999999999999</v>
+        <v>-13.717000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2411</v>
+        <v>2100</v>
       </c>
       <c r="T18">
-        <v>3301.3069999999998</v>
+        <v>1409.3219999999999</v>
       </c>
       <c r="U18">
-        <v>4.556</v>
+        <v>24.611000000000001</v>
       </c>
       <c r="V18">
-        <v>174.143</v>
+        <v>66.525000000000006</v>
       </c>
       <c r="W18">
-        <v>-44.143000000000001</v>
+        <v>-15.29</v>
       </c>
       <c r="X18">
-        <v>21.568000000000001</v>
+        <v>-14.55</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-8</v>
+        <v>43.268000000000001</v>
       </c>
       <c r="AA18">
-        <v>43.448999999999998</v>
+        <v>88.843000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>50.98</v>
+        <v>15.615</v>
       </c>
       <c r="D19">
-        <v>590.80700000000002</v>
+        <v>336.50200000000001</v>
       </c>
       <c r="E19">
-        <v>236.285</v>
+        <v>50.359000000000002</v>
       </c>
       <c r="F19">
-        <v>293.43299999999999</v>
+        <v>138.494</v>
       </c>
       <c r="G19">
-        <v>674.56500000000005</v>
+        <v>416.90199999999999</v>
       </c>
       <c r="H19">
-        <v>10409.735000000001</v>
+        <v>5156.8530000000001</v>
       </c>
       <c r="I19">
-        <v>203.13800000000001</v>
+        <v>110.301</v>
       </c>
       <c r="J19">
-        <v>3228.931</v>
+        <v>1528.511</v>
       </c>
       <c r="K19">
-        <v>425.4</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-154.71</v>
+        <v>-292.97000000000003</v>
       </c>
       <c r="N19">
-        <v>1036.702</v>
+        <v>565.52800000000002</v>
       </c>
       <c r="O19">
-        <v>7094.3869999999997</v>
+        <v>3746.8780000000002</v>
       </c>
       <c r="P19">
-        <v>3682.6460000000002</v>
+        <v>1693.511</v>
       </c>
       <c r="Q19">
-        <v>1.518</v>
+        <v>1.1930000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3315.348</v>
+        <v>1409.9749999999999</v>
       </c>
       <c r="U19">
-        <v>6.0739999999999998</v>
+        <v>25.803999999999998</v>
       </c>
       <c r="V19">
-        <v>213.56800000000001</v>
+        <v>113.63</v>
       </c>
       <c r="W19">
-        <v>-43.786999999999999</v>
+        <v>-18.538</v>
       </c>
       <c r="X19">
-        <v>-25.756</v>
+        <v>-60.185000000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2.0089999999999999</v>
       </c>
       <c r="AA19">
-        <v>50.98</v>
+        <v>15.615</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>63.71</v>
+        <v>27.876000000000001</v>
       </c>
       <c r="D20">
-        <v>589.56299999999999</v>
+        <v>374.80200000000002</v>
       </c>
       <c r="E20">
-        <v>266.33</v>
+        <v>72.405000000000001</v>
       </c>
       <c r="F20">
-        <v>309.392</v>
+        <v>146.35599999999999</v>
       </c>
       <c r="G20">
-        <v>753.53200000000004</v>
+        <v>826.62</v>
       </c>
       <c r="H20">
-        <v>10548.159</v>
+        <v>5643.7939999999999</v>
       </c>
       <c r="I20">
-        <v>185.30699999999999</v>
+        <v>112.85</v>
       </c>
       <c r="J20">
-        <v>3229.828</v>
+        <v>1562.8489999999999</v>
       </c>
       <c r="K20">
-        <v>307.10000000000002</v>
+        <v>38.5</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>844.92499999999995</v>
+        <v>986.91499999999996</v>
       </c>
       <c r="O20">
-        <v>6963.6949999999997</v>
+        <v>4224.424</v>
       </c>
       <c r="P20">
-        <v>3565.2429999999999</v>
+        <v>2131.3490000000002</v>
       </c>
       <c r="Q20">
-        <v>-3.8079999999999998</v>
+        <v>374.25099999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3584.4639999999999</v>
+        <v>1419.37</v>
       </c>
       <c r="U20">
-        <v>2.266</v>
+        <v>400.05500000000001</v>
       </c>
       <c r="V20">
-        <v>19.443999999999999</v>
+        <v>-23.539000000000001</v>
       </c>
       <c r="W20">
-        <v>-45.247999999999998</v>
+        <v>-18.632000000000001</v>
       </c>
       <c r="X20">
-        <v>139.38200000000001</v>
+        <v>459.48</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.542</v>
       </c>
       <c r="AA20">
-        <v>63.71</v>
+        <v>27.876000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>138.00299999999999</v>
+        <v>84.475999999999999</v>
       </c>
       <c r="D21">
-        <v>732.82899999999995</v>
+        <v>477.89600000000002</v>
       </c>
       <c r="E21">
-        <v>288.76400000000001</v>
+        <v>117.773</v>
       </c>
       <c r="F21">
-        <v>430.95499999999998</v>
+        <v>241.64699999999999</v>
       </c>
       <c r="G21">
-        <v>757.68299999999999</v>
+        <v>400.77</v>
       </c>
       <c r="H21">
-        <v>10584.079</v>
+        <v>5230.1850000000004</v>
       </c>
       <c r="I21">
-        <v>175.309</v>
+        <v>107.97499999999999</v>
       </c>
       <c r="J21">
-        <v>3080.0230000000001</v>
+        <v>1562.92</v>
       </c>
       <c r="K21">
-        <v>303.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>878.69299999999998</v>
+        <v>533.77300000000002</v>
       </c>
       <c r="O21">
-        <v>6908.1580000000004</v>
+        <v>3743.5790000000002</v>
       </c>
       <c r="P21">
-        <v>3411.9319999999998</v>
+        <v>1662.92</v>
       </c>
       <c r="Q21">
-        <v>1.5629999999999999</v>
+        <v>-383.77</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3675.9209999999998</v>
+        <v>1486.606</v>
       </c>
       <c r="U21">
-        <v>3.8290000000000002</v>
+        <v>16.285</v>
       </c>
       <c r="V21">
-        <v>351.85199999999998</v>
+        <v>156.732</v>
       </c>
       <c r="W21">
-        <v>-48.581000000000003</v>
+        <v>-18.689</v>
       </c>
       <c r="X21">
-        <v>-263.24299999999999</v>
+        <v>-508.49799999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>8.7159999999999993</v>
       </c>
       <c r="AA21">
-        <v>138.00299999999999</v>
+        <v>84.474999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>39.235999999999997</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>545.96500000000003</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>258.286</v>
+        <v>123.935</v>
       </c>
       <c r="F22">
-        <v>304.98599999999999</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>717.14099999999996</v>
+        <v>475.62</v>
       </c>
       <c r="H22">
-        <v>10705.665999999999</v>
+        <v>5210.0690000000004</v>
       </c>
       <c r="I22">
-        <v>220.96899999999999</v>
+        <v>109.807</v>
       </c>
       <c r="J22">
-        <v>3302.047</v>
+        <v>1562.99</v>
       </c>
       <c r="K22">
-        <v>250.3</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>836.93499999999995</v>
+        <v>550.06700000000001</v>
       </c>
       <c r="O22">
-        <v>7033.7030000000004</v>
+        <v>3772.63</v>
       </c>
       <c r="P22">
-        <v>3580.6559999999999</v>
+        <v>1662.99</v>
       </c>
       <c r="Q22">
-        <v>-0.59799999999999998</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2330</v>
+        <v>2191</v>
       </c>
       <c r="T22">
-        <v>3671.9630000000002</v>
+        <v>1437.4390000000001</v>
       </c>
       <c r="U22">
-        <v>3.2309999999999999</v>
+        <v>38.539000000000001</v>
       </c>
       <c r="V22">
-        <v>130.98599999999999</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-48.503999999999998</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>82.146000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-0.57499999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>39.235999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>65.584999999999994</v>
+        <v>26.838000000000001</v>
       </c>
       <c r="D23">
-        <v>569.45000000000005</v>
+        <v>340.02300000000002</v>
       </c>
       <c r="E23">
-        <v>225.09</v>
+        <v>154.828</v>
       </c>
       <c r="F23">
-        <v>330.875</v>
+        <v>137.52000000000001</v>
       </c>
       <c r="G23">
-        <v>675.57899999999995</v>
+        <v>469.54899999999998</v>
       </c>
       <c r="H23">
-        <v>10805.597</v>
+        <v>5162.4089999999997</v>
       </c>
       <c r="I23">
-        <v>230.30699999999999</v>
+        <v>118.598</v>
       </c>
       <c r="J23">
-        <v>3150.4780000000001</v>
+        <v>1563.059</v>
       </c>
       <c r="K23">
-        <v>316.8</v>
+        <v>143</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-213.86699999999999</v>
+        <v>-108.021</v>
       </c>
       <c r="N23">
-        <v>1073.933</v>
+        <v>567.84</v>
       </c>
       <c r="O23">
-        <v>7118.3919999999998</v>
+        <v>3723.683</v>
       </c>
       <c r="P23">
-        <v>3619.12</v>
+        <v>1706.059</v>
       </c>
       <c r="Q23">
-        <v>0.24</v>
+        <v>-32.866</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3687.2049999999999</v>
+        <v>1438.7260000000001</v>
       </c>
       <c r="U23">
-        <v>3.4710000000000001</v>
+        <v>5.673</v>
       </c>
       <c r="V23">
-        <v>238.876</v>
+        <v>-17.276</v>
       </c>
       <c r="W23">
-        <v>-49.664999999999999</v>
+        <v>-18.776</v>
       </c>
       <c r="X23">
-        <v>-40.875</v>
+        <v>17.966000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-0.65500000000000003</v>
+        <v>25.352</v>
       </c>
       <c r="AA23">
-        <v>65.584999999999994</v>
+        <v>26.838000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>72.34</v>
+        <v>35.365000000000002</v>
       </c>
       <c r="D24">
-        <v>621.44799999999998</v>
+        <v>406.62200000000001</v>
       </c>
       <c r="E24">
-        <v>298.84100000000001</v>
+        <v>203.601</v>
       </c>
       <c r="F24">
-        <v>361.97199999999998</v>
+        <v>158.304</v>
       </c>
       <c r="G24">
-        <v>741.86800000000005</v>
+        <v>578.32000000000005</v>
       </c>
       <c r="H24">
-        <v>10970.742</v>
+        <v>5254.5079999999998</v>
       </c>
       <c r="I24">
-        <v>178.374</v>
+        <v>119.758</v>
       </c>
       <c r="J24">
-        <v>3498.9259999999999</v>
+        <v>1563.1279999999999</v>
       </c>
       <c r="K24">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>821.51099999999997</v>
+        <v>656.84799999999996</v>
       </c>
       <c r="O24">
-        <v>7255.991</v>
+        <v>3800.3710000000001</v>
       </c>
       <c r="P24">
-        <v>3827.768</v>
+        <v>1761.1279999999999</v>
       </c>
       <c r="Q24">
-        <v>1.742</v>
+        <v>4.3319999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3714.7510000000002</v>
+        <v>1454.1369999999999</v>
       </c>
       <c r="U24">
-        <v>5.2130000000000001</v>
+        <v>10.005000000000001</v>
       </c>
       <c r="V24">
-        <v>89.805000000000007</v>
+        <v>-12.032</v>
       </c>
       <c r="W24">
-        <v>-51.472000000000001</v>
+        <v>-20.420999999999999</v>
       </c>
       <c r="X24">
-        <v>210.13900000000001</v>
+        <v>88.1</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>26.266999999999999</v>
       </c>
       <c r="AA24">
-        <v>72.34</v>
+        <v>35.365000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>154.72</v>
+        <v>90.034000000000006</v>
       </c>
       <c r="D25">
-        <v>764.654</v>
+        <v>515.947</v>
       </c>
       <c r="E25">
-        <v>322.38600000000002</v>
+        <v>195.71600000000001</v>
       </c>
       <c r="F25">
-        <v>464.28399999999999</v>
+        <v>231.87</v>
       </c>
       <c r="G25">
-        <v>762.303</v>
+        <v>515.34199999999998</v>
       </c>
       <c r="H25">
-        <v>11244.418</v>
+        <v>5146.3900000000003</v>
       </c>
       <c r="I25">
-        <v>228.04599999999999</v>
+        <v>127.929</v>
       </c>
       <c r="J25">
-        <v>3499.4389999999999</v>
+        <v>1563.1959999999999</v>
       </c>
       <c r="K25">
-        <v>182.9</v>
+        <v>87</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>917.02800000000002</v>
+        <v>522.37800000000004</v>
       </c>
       <c r="O25">
-        <v>7420</v>
+        <v>3621.681</v>
       </c>
       <c r="P25">
-        <v>3834.181</v>
+        <v>1650.1959999999999</v>
       </c>
       <c r="Q25">
-        <v>-1.276</v>
+        <v>-0.93400000000000005</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3824.4180000000001</v>
+        <v>1524.7090000000001</v>
       </c>
       <c r="U25">
-        <v>3.9369999999999998</v>
+        <v>9.0709999999999997</v>
       </c>
       <c r="V25">
-        <v>363.892</v>
+        <v>187.184</v>
       </c>
       <c r="W25">
-        <v>-51.65</v>
+        <v>-20.937000000000001</v>
       </c>
       <c r="X25">
-        <v>-46.113</v>
+        <v>-132.37100000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="AA25">
-        <v>154.72</v>
+        <v>90.034000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>53.932000000000002</v>
+        <v>13.071999999999999</v>
       </c>
       <c r="D26">
-        <v>606.53499999999997</v>
+        <v>343.15100000000001</v>
       </c>
       <c r="E26">
-        <v>288.57900000000001</v>
+        <v>179.85900000000001</v>
       </c>
       <c r="F26">
-        <v>316.38400000000001</v>
+        <v>130.30500000000001</v>
       </c>
       <c r="G26">
-        <v>768.38199999999995</v>
+        <v>536.72</v>
       </c>
       <c r="H26">
-        <v>11487.074000000001</v>
+        <v>5455.1750000000002</v>
       </c>
       <c r="I26">
-        <v>220.52199999999999</v>
+        <v>150.42400000000001</v>
       </c>
       <c r="J26">
-        <v>3499.8789999999999</v>
+        <v>1563.2650000000001</v>
       </c>
       <c r="K26">
-        <v>366.7</v>
+        <v>160</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1047.193</v>
+        <v>663.17600000000004</v>
       </c>
       <c r="O26">
-        <v>7653.884</v>
+        <v>3894.28</v>
       </c>
       <c r="P26">
-        <v>4018.4209999999998</v>
+        <v>1735.5809999999999</v>
       </c>
       <c r="Q26">
-        <v>-0.871</v>
+        <v>9.125</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>2254</v>
+        <v>2223</v>
       </c>
       <c r="T26">
-        <v>3833.19</v>
+        <v>1560.895</v>
       </c>
       <c r="U26">
-        <v>3.0659999999999998</v>
+        <v>18.196000000000002</v>
       </c>
       <c r="V26">
-        <v>129.84700000000001</v>
+        <v>98.11</v>
       </c>
       <c r="W26">
-        <v>-51.552999999999997</v>
+        <v>-20.76</v>
       </c>
       <c r="X26">
-        <v>67.024000000000001</v>
+        <v>39.072000000000003</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>12.316000000000001</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1.054</v>
       </c>
       <c r="AA26">
-        <v>53.932000000000002</v>
+        <v>13.071999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>59.661000000000001</v>
+        <v>30.175000000000001</v>
       </c>
       <c r="D27">
-        <v>572.57399999999996</v>
+        <v>370.30599999999998</v>
       </c>
       <c r="E27">
-        <v>237.03200000000001</v>
+        <v>169.37100000000001</v>
       </c>
       <c r="F27">
-        <v>263.12599999999998</v>
+        <v>159.309</v>
       </c>
       <c r="G27">
-        <v>721.1</v>
+        <v>506.61500000000001</v>
       </c>
       <c r="H27">
-        <v>11515.59</v>
+        <v>5459.6210000000001</v>
       </c>
       <c r="I27">
-        <v>162.23099999999999</v>
+        <v>142.50200000000001</v>
       </c>
       <c r="J27">
-        <v>3768.415</v>
+        <v>1563.308</v>
       </c>
       <c r="K27">
-        <v>226.3</v>
+        <v>239</v>
       </c>
       <c r="L27">
-        <v>-140.40700000000001</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-152.63999999999999</v>
+        <v>-2.5739999999999998</v>
       </c>
       <c r="N27">
-        <v>766.73800000000006</v>
+        <v>631.60299999999995</v>
       </c>
       <c r="O27">
-        <v>7684.4210000000003</v>
+        <v>3878.1590000000001</v>
       </c>
       <c r="P27">
-        <v>4023.2530000000002</v>
+        <v>1802.308</v>
       </c>
       <c r="Q27">
-        <v>0.29299999999999998</v>
+        <v>-10.762</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3831.1689999999999</v>
+        <v>1581.462</v>
       </c>
       <c r="U27">
-        <v>3.359</v>
+        <v>7.4340000000000002</v>
       </c>
       <c r="V27">
-        <v>236.72499999999999</v>
+        <v>60.16</v>
       </c>
       <c r="W27">
-        <v>-52.75</v>
+        <v>-20.446000000000002</v>
       </c>
       <c r="X27">
-        <v>-60.707999999999998</v>
+        <v>57.603000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="AA27">
-        <v>59.661000000000001</v>
+        <v>30.175000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>72.039000000000001</v>
+        <v>32.707999999999998</v>
       </c>
       <c r="D28">
-        <v>609.29999999999995</v>
+        <v>415.178</v>
       </c>
       <c r="E28">
-        <v>274.42599999999999</v>
+        <v>220.29599999999999</v>
       </c>
       <c r="F28">
-        <v>296.10000000000002</v>
+        <v>161.774</v>
       </c>
       <c r="G28">
-        <v>740.226</v>
+        <v>641.50599999999997</v>
       </c>
       <c r="H28">
-        <v>11596.15</v>
+        <v>5858.875</v>
       </c>
       <c r="I28">
-        <v>139.62799999999999</v>
+        <v>157.41399999999999</v>
       </c>
       <c r="J28">
-        <v>3768.8330000000001</v>
+        <v>1713.377</v>
       </c>
       <c r="K28">
-        <v>329.2</v>
+        <v>170</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>774.17200000000003</v>
+        <v>681.73699999999997</v>
       </c>
       <c r="O28">
-        <v>7741.2709999999997</v>
+        <v>4182.5479999999998</v>
       </c>
       <c r="P28">
-        <v>4126.5709999999999</v>
+        <v>2014.509</v>
       </c>
       <c r="Q28">
-        <v>-0.193</v>
+        <v>-1.325</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3854.8789999999999</v>
+        <v>1676.327</v>
       </c>
       <c r="U28">
-        <v>3.21</v>
+        <v>6.109</v>
       </c>
       <c r="V28">
-        <v>126.97499999999999</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="W28">
-        <v>-56.65</v>
+        <v>-22.39</v>
       </c>
       <c r="X28">
-        <v>96.608000000000004</v>
+        <v>194.01300000000001</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>123.223</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="AA28">
-        <v>72.099999999999994</v>
+        <v>32.707999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>158.30000000000001</v>
+        <v>91.706000000000003</v>
       </c>
       <c r="D29">
-        <v>794.3</v>
+        <v>548.49599999999998</v>
       </c>
       <c r="E29">
-        <v>308.27499999999998</v>
+        <v>241.834</v>
       </c>
       <c r="F29">
-        <v>401.3</v>
+        <v>244.65600000000001</v>
       </c>
       <c r="G29">
-        <v>733.04899999999998</v>
+        <v>650.54399999999998</v>
       </c>
       <c r="H29">
-        <v>11625.375</v>
+        <v>5963.268</v>
       </c>
       <c r="I29">
-        <v>147.93299999999999</v>
+        <v>190.50700000000001</v>
       </c>
       <c r="J29">
-        <v>3768.2849999999999</v>
+        <v>1713.4449999999999</v>
       </c>
       <c r="K29">
-        <v>189.1</v>
+        <v>174</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>686.846</v>
+        <v>686.63300000000004</v>
       </c>
       <c r="O29">
-        <v>7746.4750000000004</v>
+        <v>4197.5630000000001</v>
       </c>
       <c r="P29">
-        <v>3985.9189999999999</v>
+        <v>2012.8920000000001</v>
       </c>
       <c r="Q29">
-        <v>0.2</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3878.9</v>
+        <v>1765.7049999999999</v>
       </c>
       <c r="U29">
-        <v>3.3879999999999999</v>
+        <v>8.0470000000000006</v>
       </c>
       <c r="V29">
-        <v>379</v>
+        <v>146.773</v>
       </c>
       <c r="W29">
-        <v>-56.9</v>
+        <v>-23.14</v>
       </c>
       <c r="X29">
-        <v>-196.9</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>123.767</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="AA29">
-        <v>158.30000000000001</v>
+        <v>91.706000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>33.9</v>
+        <v>13.765000000000001</v>
       </c>
       <c r="D30">
-        <v>594.79999999999995</v>
+        <v>392.85300000000001</v>
       </c>
       <c r="E30">
-        <v>235.3</v>
+        <v>195.785</v>
       </c>
       <c r="F30">
-        <v>257.89999999999998</v>
+        <v>143.14699999999999</v>
       </c>
       <c r="G30">
-        <v>727</v>
+        <v>667.67899999999997</v>
       </c>
       <c r="H30">
-        <v>11624.4</v>
+        <v>6395.43</v>
       </c>
       <c r="I30">
-        <v>204.2</v>
+        <v>278.29899999999998</v>
       </c>
       <c r="J30">
-        <v>3769</v>
+        <v>1889.7809999999999</v>
       </c>
       <c r="K30">
-        <v>275.7</v>
+        <v>180</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>823.7</v>
+        <v>744.76300000000003</v>
       </c>
       <c r="O30">
-        <v>7764</v>
+        <v>4546.95</v>
       </c>
       <c r="P30">
-        <v>4073.2</v>
+        <v>2194.1930000000002</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-2.294</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>2205</v>
+        <v>2323</v>
       </c>
       <c r="T30">
-        <v>3860.4</v>
+        <v>1848.48</v>
       </c>
       <c r="U30">
-        <v>3.4</v>
+        <v>5.7530000000000001</v>
       </c>
       <c r="V30">
-        <v>170</v>
+        <v>37.628</v>
       </c>
       <c r="W30">
-        <v>-56.8</v>
+        <v>-23.495000000000001</v>
       </c>
       <c r="X30">
-        <v>29.4</v>
+        <v>251.065</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>123.854</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AA30">
-        <v>33.9</v>
+        <v>13.765000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>60.5</v>
+        <v>61.136000000000003</v>
       </c>
       <c r="D31">
-        <v>600.20000000000005</v>
+        <v>406.827</v>
       </c>
       <c r="E31">
-        <v>244.411</v>
+        <v>182.64500000000001</v>
       </c>
       <c r="F31">
-        <v>257</v>
+        <v>144.36000000000001</v>
       </c>
       <c r="G31">
-        <v>683.24800000000005</v>
+        <v>741.74099999999999</v>
       </c>
       <c r="H31">
-        <v>11620.369000000001</v>
+        <v>6580.9679999999998</v>
       </c>
       <c r="I31">
-        <v>139.30799999999999</v>
+        <v>220.71700000000001</v>
       </c>
       <c r="J31">
-        <v>3739.3530000000001</v>
+        <v>1890.915</v>
       </c>
       <c r="K31">
-        <v>289.8</v>
+        <v>322.5</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-30.2</v>
+        <v>-8.5510000000000002</v>
       </c>
       <c r="N31">
-        <v>830.34900000000005</v>
+        <v>888.52</v>
       </c>
       <c r="O31">
-        <v>7755.9229999999998</v>
+        <v>4644.8789999999999</v>
       </c>
       <c r="P31">
-        <v>4059.49</v>
+        <v>2330.7260000000001</v>
       </c>
       <c r="Q31">
-        <v>7.8</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3864.4459999999999</v>
+        <v>1936.0889999999999</v>
       </c>
       <c r="U31">
-        <v>11.166</v>
+        <v>6.109</v>
       </c>
       <c r="V31">
-        <v>259.60000000000002</v>
+        <v>10.695</v>
       </c>
       <c r="W31">
-        <v>-57.4</v>
+        <v>-23.454999999999998</v>
       </c>
       <c r="X31">
-        <v>-77.7</v>
+        <v>173.12100000000001</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>116.06399999999999</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>60.5</v>
+        <v>61.136000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>101.8</v>
+        <v>5.8449999999999998</v>
       </c>
       <c r="D32">
-        <v>893.4</v>
+        <v>451.21899999999999</v>
       </c>
       <c r="E32">
-        <v>421</v>
+        <v>247.22200000000001</v>
       </c>
       <c r="F32">
-        <v>369</v>
+        <v>128.898</v>
       </c>
       <c r="G32">
-        <v>2937.3</v>
+        <v>948.79100000000005</v>
       </c>
       <c r="H32">
-        <v>26659.3</v>
+        <v>7064.1610000000001</v>
       </c>
       <c r="I32">
-        <v>327.60000000000002</v>
+        <v>242.24600000000001</v>
       </c>
       <c r="J32">
-        <v>6692.2</v>
+        <v>2040.663</v>
       </c>
       <c r="K32">
-        <v>1274.3</v>
+        <v>179.2</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3077.9</v>
+        <v>910.13300000000004</v>
       </c>
       <c r="O32">
-        <v>15763.9</v>
+        <v>4910.9949999999999</v>
       </c>
       <c r="P32">
-        <v>8816.1</v>
+        <v>2337.7820000000002</v>
       </c>
       <c r="Q32">
-        <v>1268.9000000000001</v>
+        <v>2.8889999999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10895.4</v>
+        <v>2153.1660000000002</v>
       </c>
       <c r="U32">
-        <v>1280.0999999999999</v>
+        <v>8.9979999999999993</v>
       </c>
       <c r="V32">
-        <v>137.6</v>
+        <v>-12.849</v>
       </c>
       <c r="W32">
-        <v>-170.9</v>
+        <v>-27.016999999999999</v>
       </c>
       <c r="X32">
-        <v>110.3</v>
+        <v>270.34800000000001</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>116.65900000000001</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>101.8</v>
+        <v>5.8449999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>355</v>
+        <v>88.286000000000001</v>
       </c>
       <c r="D33">
-        <v>1582.5</v>
+        <v>574.85299999999995</v>
       </c>
       <c r="E33">
-        <v>414.1</v>
+        <v>227.74700000000001</v>
       </c>
       <c r="F33">
-        <v>826.3</v>
+        <v>247.041</v>
       </c>
       <c r="G33">
-        <v>2319</v>
+        <v>712.78399999999999</v>
       </c>
       <c r="H33">
-        <v>26075.200000000001</v>
+        <v>6978.1379999999999</v>
       </c>
       <c r="I33">
-        <v>303.7</v>
+        <v>188.56700000000001</v>
       </c>
       <c r="J33">
-        <v>6690.9</v>
+        <v>1895.25</v>
       </c>
       <c r="K33">
-        <v>870.9</v>
+        <v>290.36700000000002</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2659.2</v>
+        <v>984.42700000000002</v>
       </c>
       <c r="O33">
-        <v>15426.4</v>
+        <v>4764.8770000000004</v>
       </c>
       <c r="P33">
-        <v>8301.7000000000007</v>
+        <v>2450.5160000000001</v>
       </c>
       <c r="Q33">
-        <v>-600.4</v>
+        <v>-4.6989999999999998</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>10648.8</v>
+        <v>2213.261</v>
       </c>
       <c r="U33">
-        <v>679.7</v>
+        <v>4.2990000000000004</v>
       </c>
       <c r="V33">
-        <v>794.4</v>
+        <v>203.298</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-29.094999999999999</v>
       </c>
       <c r="X33">
-        <v>-1122.7</v>
+        <v>80.715000000000003</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>118.547</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>355</v>
+        <v>88.284999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>18.5</v>
+        <v>22.873000000000001</v>
       </c>
       <c r="D34">
-        <v>1199.8</v>
+        <v>406.09699999999998</v>
       </c>
       <c r="E34">
-        <v>98.7</v>
+        <v>199.11600000000001</v>
       </c>
       <c r="F34">
-        <v>461.3</v>
+        <v>152.511</v>
       </c>
       <c r="G34">
-        <v>1681</v>
+        <v>743.13099999999997</v>
       </c>
       <c r="H34">
-        <v>25598.1</v>
+        <v>7443.259</v>
       </c>
       <c r="I34">
-        <v>451.5</v>
+        <v>195.68299999999999</v>
       </c>
       <c r="J34">
-        <v>6687.4</v>
+        <v>2192.538</v>
       </c>
       <c r="K34">
-        <v>1103.5999999999999</v>
+        <v>174.9</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2867.2</v>
+        <v>872.40899999999999</v>
       </c>
       <c r="O34">
-        <v>15607.4</v>
+        <v>5235.6790000000001</v>
       </c>
       <c r="P34">
-        <v>8526.7000000000007</v>
+        <v>2631.7130000000002</v>
       </c>
       <c r="Q34">
-        <v>-519.5</v>
+        <v>18.614999999999998</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>4832</v>
+        <v>2415</v>
       </c>
       <c r="T34">
-        <v>9990.7000000000007</v>
+        <v>2207.58</v>
       </c>
       <c r="U34">
-        <v>160.30000000000001</v>
+        <v>22.914000000000001</v>
       </c>
       <c r="V34">
-        <v>306.2</v>
+        <v>73.745999999999995</v>
       </c>
       <c r="W34">
-        <v>-124.6</v>
+        <v>-30.012</v>
       </c>
       <c r="X34">
-        <v>-448.3</v>
+        <v>124.524</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>117.90900000000001</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>18.5</v>
+        <v>22.873000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>99.5</v>
+        <v>44.164000000000001</v>
       </c>
       <c r="D35">
-        <v>1216.9000000000001</v>
+        <v>421.767</v>
       </c>
       <c r="E35">
-        <v>87.3</v>
+        <v>179.91</v>
       </c>
       <c r="F35">
-        <v>531.29999999999995</v>
+        <v>158.95599999999999</v>
       </c>
       <c r="G35">
-        <v>1927.6</v>
+        <v>687.51300000000003</v>
       </c>
       <c r="H35">
-        <v>26060.7</v>
+        <v>7431.7579999999998</v>
       </c>
       <c r="I35">
-        <v>293.7</v>
+        <v>176.18899999999999</v>
       </c>
       <c r="J35">
-        <v>7144.7</v>
+        <v>2192.172</v>
       </c>
       <c r="K35">
-        <v>1670</v>
+        <v>258.5</v>
       </c>
       <c r="L35">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-61.5</v>
+        <v>-11.557</v>
       </c>
       <c r="N35">
-        <v>3335.4</v>
+        <v>890.04</v>
       </c>
       <c r="O35">
-        <v>16669</v>
+        <v>5209.2330000000002</v>
       </c>
       <c r="P35">
-        <v>9720.5</v>
+        <v>2706.1889999999999</v>
       </c>
       <c r="Q35">
-        <v>387.6</v>
+        <v>-3.464</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9391.7000000000007</v>
+        <v>2222.5250000000001</v>
       </c>
       <c r="U35">
-        <v>133.6</v>
+        <v>19.45</v>
       </c>
       <c r="V35">
-        <v>362.1</v>
+        <v>103.13200000000001</v>
       </c>
       <c r="W35">
-        <v>-119.8</v>
+        <v>-29.812000000000001</v>
       </c>
       <c r="X35">
-        <v>296.89999999999998</v>
+        <v>44.314999999999998</v>
       </c>
       <c r="Y35">
-        <v>132.9</v>
+        <v>109.137</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>99.5</v>
+        <v>44.164000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>139.69999999999999</v>
+        <v>38.384999999999998</v>
       </c>
       <c r="D36">
-        <v>1221.7</v>
+        <v>467.81200000000001</v>
       </c>
       <c r="E36">
-        <v>185.7</v>
+        <v>240.47800000000001</v>
       </c>
       <c r="F36">
-        <v>578.6</v>
+        <v>207.494</v>
       </c>
       <c r="G36">
-        <v>1539.4</v>
+        <v>740.27099999999996</v>
       </c>
       <c r="H36">
-        <v>25718.400000000001</v>
+        <v>7600.3320000000003</v>
       </c>
       <c r="I36">
-        <v>278.10000000000002</v>
+        <v>151.53100000000001</v>
       </c>
       <c r="J36">
-        <v>7141.3</v>
+        <v>2491.4279999999999</v>
       </c>
       <c r="K36">
-        <v>2551</v>
+        <v>62.7</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3482.8</v>
+        <v>730.42499999999995</v>
       </c>
       <c r="O36">
-        <v>16863.7</v>
+        <v>5368.67</v>
       </c>
       <c r="P36">
-        <v>9912.2000000000007</v>
+        <v>2808.9169999999999</v>
       </c>
       <c r="Q36">
-        <v>-440.9</v>
+        <v>-14.509</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8854.7000000000007</v>
+        <v>2231.6619999999998</v>
       </c>
       <c r="U36">
-        <v>107</v>
+        <v>4.9409999999999998</v>
       </c>
       <c r="V36">
-        <v>271.60000000000002</v>
+        <v>112.854</v>
       </c>
       <c r="W36">
-        <v>-115.8</v>
+        <v>-31.116</v>
       </c>
       <c r="X36">
-        <v>-454.4</v>
+        <v>77.094999999999999</v>
       </c>
       <c r="Y36">
-        <v>126.9</v>
+        <v>108.395</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>139.69999999999999</v>
+        <v>38.386000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>366.8</v>
+        <v>81.143000000000001</v>
       </c>
       <c r="D37">
-        <v>1577.6</v>
+        <v>528.53399999999999</v>
       </c>
       <c r="E37">
-        <v>166.5</v>
+        <v>213.434</v>
       </c>
       <c r="F37">
-        <v>846.7</v>
+        <v>256.76900000000001</v>
       </c>
       <c r="G37">
-        <v>1512.3</v>
+        <v>657.61</v>
       </c>
       <c r="H37">
-        <v>25907.5</v>
+        <v>7571.6049999999996</v>
       </c>
       <c r="I37">
-        <v>311.3</v>
+        <v>117.96899999999999</v>
       </c>
       <c r="J37">
-        <v>8768</v>
+        <v>2490.9389999999999</v>
       </c>
       <c r="K37">
-        <v>755.6</v>
+        <v>167.232</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2075.1</v>
+        <v>657.94500000000005</v>
       </c>
       <c r="O37">
-        <v>17317.599999999999</v>
+        <v>5287.6239999999998</v>
       </c>
       <c r="P37">
-        <v>9950</v>
+        <v>2768.4290000000001</v>
       </c>
       <c r="Q37">
-        <v>-56.9</v>
+        <v>-1.1930000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8589.9</v>
+        <v>2283.9810000000002</v>
       </c>
       <c r="U37">
-        <v>50.1</v>
+        <v>3.7480000000000002</v>
       </c>
       <c r="V37">
-        <v>813.6</v>
+        <v>192.05500000000001</v>
       </c>
       <c r="W37">
-        <v>-111.9</v>
+        <v>-30.988</v>
       </c>
       <c r="X37">
-        <v>-627.9</v>
+        <v>-70.917000000000002</v>
       </c>
       <c r="Y37">
-        <v>123</v>
+        <v>108.92700000000001</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>366.8</v>
+        <v>81.141999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>63.9</v>
+        <v>11.382999999999999</v>
       </c>
       <c r="D38">
-        <v>1131.5999999999999</v>
+        <v>440.11799999999999</v>
       </c>
       <c r="E38">
-        <v>100.7</v>
+        <v>216.18600000000001</v>
       </c>
       <c r="F38">
-        <v>476.2</v>
+        <v>183.21799999999999</v>
       </c>
       <c r="G38">
-        <v>1467.7</v>
+        <v>629.48199999999997</v>
       </c>
       <c r="H38">
-        <v>25975.9</v>
+        <v>7525.4830000000002</v>
       </c>
       <c r="I38">
-        <v>528.79999999999995</v>
+        <v>112.211</v>
       </c>
       <c r="J38">
-        <v>8765.5</v>
+        <v>2490.7339999999999</v>
       </c>
       <c r="K38">
-        <v>900.9</v>
+        <v>242.76</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2335.9</v>
+        <v>682.47799999999995</v>
       </c>
       <c r="O38">
-        <v>17430.599999999999</v>
+        <v>5258.6980000000003</v>
       </c>
       <c r="P38">
-        <v>9949.7999999999993</v>
+        <v>2855.357</v>
       </c>
       <c r="Q38">
-        <v>-26.9</v>
+        <v>0.112</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>4617</v>
+        <v>2397</v>
       </c>
       <c r="T38">
-        <v>8545.2999999999993</v>
+        <v>2266.7849999999999</v>
       </c>
       <c r="U38">
-        <v>23.2</v>
+        <v>3.86</v>
       </c>
       <c r="V38">
-        <v>301.7</v>
+        <v>70.864000000000004</v>
       </c>
       <c r="W38">
-        <v>-115</v>
+        <v>-31.021000000000001</v>
       </c>
       <c r="X38">
-        <v>-20.399999999999999</v>
+        <v>46.728999999999999</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>109.3</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-0.81799999999999995</v>
       </c>
       <c r="AA38">
-        <v>63.9</v>
+        <v>11.382999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>69.400000000000006</v>
+        <v>30.68</v>
       </c>
       <c r="D39">
-        <v>1116.7</v>
+        <v>459.83</v>
       </c>
       <c r="E39">
-        <v>56</v>
+        <v>195.11199999999999</v>
       </c>
       <c r="F39">
-        <v>535.29999999999995</v>
+        <v>204.858</v>
       </c>
       <c r="G39">
-        <v>1732.8</v>
+        <v>629.25900000000001</v>
       </c>
       <c r="H39">
-        <v>26184.7</v>
+        <v>7812.77</v>
       </c>
       <c r="I39">
-        <v>298.10000000000002</v>
+        <v>130.09299999999999</v>
       </c>
       <c r="J39">
-        <v>8993.5</v>
+        <v>2791.3</v>
       </c>
       <c r="K39">
-        <v>1377</v>
+        <v>209.16</v>
       </c>
       <c r="L39">
-        <v>-17</v>
+        <v>-33.6</v>
       </c>
       <c r="M39">
-        <v>-61.2</v>
+        <v>-11.191000000000001</v>
       </c>
       <c r="N39">
-        <v>2397.6999999999998</v>
+        <v>732.92</v>
       </c>
       <c r="O39">
-        <v>17679.3</v>
+        <v>5517.5879999999997</v>
       </c>
       <c r="P39">
-        <v>10390.4</v>
+        <v>3039.4169999999999</v>
       </c>
       <c r="Q39">
-        <v>281.2</v>
+        <v>-1.0169999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8505.4</v>
+        <v>2295.1819999999998</v>
       </c>
       <c r="U39">
-        <v>304.39999999999998</v>
+        <v>2.843</v>
       </c>
       <c r="V39">
-        <v>320.60000000000002</v>
+        <v>151.96799999999999</v>
       </c>
       <c r="W39">
-        <v>-114.5</v>
+        <v>-31.053999999999998</v>
       </c>
       <c r="X39">
-        <v>294</v>
+        <v>-50.164999999999999</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA39">
-        <v>69.400000000000006</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>133.4</v>
+        <v>53.311</v>
       </c>
       <c r="D40">
-        <v>1184.7</v>
+        <v>495.18099999999998</v>
       </c>
       <c r="E40">
-        <v>219.9</v>
+        <v>272.72300000000001</v>
       </c>
       <c r="F40">
-        <v>583.79999999999995</v>
+        <v>236.255</v>
       </c>
       <c r="G40">
-        <v>1790.4</v>
+        <v>622.10900000000004</v>
       </c>
       <c r="H40">
-        <v>26250.400000000001</v>
+        <v>7819.1379999999999</v>
       </c>
       <c r="I40">
-        <v>332.8</v>
+        <v>171.99600000000001</v>
       </c>
       <c r="J40">
-        <v>9281.2000000000007</v>
+        <v>2788.556</v>
       </c>
       <c r="K40">
-        <v>764</v>
+        <v>240.76</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2086.1</v>
+        <v>711.32500000000005</v>
       </c>
       <c r="O40">
-        <v>17723.5</v>
+        <v>5498.72</v>
       </c>
       <c r="P40">
-        <v>10414.799999999999</v>
+        <v>3067.8910000000001</v>
       </c>
       <c r="Q40">
-        <v>-128.19999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>8526.9</v>
+        <v>2320.4180000000001</v>
       </c>
       <c r="U40">
-        <v>176.2</v>
+        <v>3.323</v>
       </c>
       <c r="V40">
-        <v>201.9</v>
+        <v>86.85</v>
       </c>
       <c r="W40">
-        <v>-114.5</v>
+        <v>-32.622</v>
       </c>
       <c r="X40">
-        <v>-62.3</v>
+        <v>66.566000000000003</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>8.7750000000000004</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="AA40">
-        <v>133.4</v>
+        <v>53.311</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>364.5</v>
+        <v>114.745</v>
       </c>
       <c r="D41">
-        <v>1517.6</v>
+        <v>644.43700000000001</v>
       </c>
       <c r="E41">
-        <v>137.30000000000001</v>
+        <v>260.404</v>
       </c>
       <c r="F41">
-        <v>859.4</v>
+        <v>329.95800000000003</v>
       </c>
       <c r="G41">
-        <v>1914.7</v>
+        <v>585.77200000000005</v>
       </c>
       <c r="H41">
-        <v>26881.200000000001</v>
+        <v>7868.9589999999998</v>
       </c>
       <c r="I41">
-        <v>358.9</v>
+        <v>138.376</v>
       </c>
       <c r="J41">
-        <v>9276.4</v>
+        <v>2770.288</v>
       </c>
       <c r="K41">
-        <v>595</v>
+        <v>163.04</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2098.1999999999998</v>
+        <v>633.70100000000002</v>
       </c>
       <c r="O41">
-        <v>18097</v>
+        <v>5461.482</v>
       </c>
       <c r="P41">
-        <v>10243.700000000001</v>
+        <v>2972.067</v>
       </c>
       <c r="Q41">
-        <v>185.4</v>
+        <v>1.149</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>8784.2000000000007</v>
+        <v>2407.4769999999999</v>
       </c>
       <c r="U41">
-        <v>361.6</v>
+        <v>4.4720000000000004</v>
       </c>
       <c r="V41">
-        <v>899.2</v>
+        <v>261.54899999999998</v>
       </c>
       <c r="W41">
-        <v>-114.6</v>
+        <v>-32.715000000000003</v>
       </c>
       <c r="X41">
-        <v>-285.10000000000002</v>
+        <v>-127.24299999999999</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>8.2460000000000004</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>364.5</v>
+        <v>114.744</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>5.16</v>
+      </c>
+      <c r="D42">
+        <v>456.72300000000001</v>
+      </c>
+      <c r="E42">
+        <v>227.7</v>
+      </c>
+      <c r="F42">
+        <v>181.33</v>
+      </c>
+      <c r="G42">
+        <v>601.60900000000004</v>
+      </c>
+      <c r="H42">
+        <v>8079.6379999999999</v>
+      </c>
+      <c r="I42">
+        <v>187.95400000000001</v>
+      </c>
+      <c r="J42">
+        <v>2776.7330000000002</v>
+      </c>
+      <c r="K42">
+        <v>226.7</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>782.846</v>
+      </c>
+      <c r="O42">
+        <v>5669.2650000000003</v>
+      </c>
+      <c r="P42">
+        <v>3042.96</v>
+      </c>
+      <c r="Q42">
+        <v>-3.544</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>2409</v>
+      </c>
+      <c r="T42">
+        <v>2410.373</v>
+      </c>
+      <c r="U42">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="V42">
+        <v>107.33499999999999</v>
+      </c>
+      <c r="W42">
+        <v>-32.755000000000003</v>
+      </c>
+      <c r="X42">
+        <v>56.253</v>
+      </c>
+      <c r="Y42">
+        <v>9.3109999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AA42">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>31.584</v>
+      </c>
+      <c r="D43">
+        <v>481.72</v>
+      </c>
+      <c r="E43">
+        <v>204.434</v>
+      </c>
+      <c r="F43">
+        <v>210.185</v>
+      </c>
+      <c r="G43">
+        <v>575.89800000000002</v>
+      </c>
+      <c r="H43">
+        <v>8162.7560000000003</v>
+      </c>
+      <c r="I43">
+        <v>178.87</v>
+      </c>
+      <c r="J43">
+        <v>2774.0439999999999</v>
+      </c>
+      <c r="K43">
+        <v>305.33999999999997</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-11.917999999999999</v>
+      </c>
+      <c r="N43">
+        <v>864.06</v>
+      </c>
+      <c r="O43">
+        <v>5726.7460000000001</v>
+      </c>
+      <c r="P43">
+        <v>3106.2420000000002</v>
+      </c>
+      <c r="Q43">
+        <v>2.415</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2436.0100000000002</v>
+      </c>
+      <c r="U43">
+        <v>3.343</v>
+      </c>
+      <c r="V43">
+        <v>95.376000000000005</v>
+      </c>
+      <c r="W43">
+        <v>-33.207999999999998</v>
+      </c>
+      <c r="X43">
+        <v>59.112000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>31.584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>44.128</v>
+      </c>
+      <c r="D44">
+        <v>524.89200000000005</v>
+      </c>
+      <c r="E44">
+        <v>269.05599999999998</v>
+      </c>
+      <c r="F44">
+        <v>234.66499999999999</v>
+      </c>
+      <c r="G44">
+        <v>664.298</v>
+      </c>
+      <c r="H44">
+        <v>8323.1479999999992</v>
+      </c>
+      <c r="I44">
+        <v>173.22499999999999</v>
+      </c>
+      <c r="J44">
+        <v>2761.049</v>
+      </c>
+      <c r="K44">
+        <v>471</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>972.08600000000001</v>
+      </c>
+      <c r="O44">
+        <v>5832.4390000000003</v>
+      </c>
+      <c r="P44">
+        <v>3265.54</v>
+      </c>
+      <c r="Q44">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>2416</v>
+      </c>
+      <c r="T44">
+        <v>2490.7089999999998</v>
+      </c>
+      <c r="U44">
+        <v>5.282</v>
+      </c>
+      <c r="V44">
+        <v>-23.928999999999998</v>
+      </c>
+      <c r="W44">
+        <v>-34.637999999999998</v>
+      </c>
+      <c r="X44">
+        <v>232.994</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-0.52800000000000002</v>
+      </c>
+      <c r="AA44">
+        <v>44.128999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="D45">
+        <v>678.15200000000004</v>
+      </c>
+      <c r="E45">
+        <v>252.04499999999999</v>
+      </c>
+      <c r="F45">
+        <v>340.78899999999999</v>
+      </c>
+      <c r="G45">
+        <v>604.91200000000003</v>
+      </c>
+      <c r="H45">
+        <v>8389.9030000000002</v>
+      </c>
+      <c r="I45">
+        <v>152.465</v>
+      </c>
+      <c r="J45">
+        <v>2741.6039999999998</v>
+      </c>
+      <c r="K45">
+        <v>391.9</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>887.84299999999996</v>
+      </c>
+      <c r="O45">
+        <v>5772.2349999999997</v>
+      </c>
+      <c r="P45">
+        <v>3192.895</v>
+      </c>
+      <c r="Q45">
+        <v>-0.68899999999999995</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>2433</v>
+      </c>
+      <c r="T45">
+        <v>2617.6680000000001</v>
+      </c>
+      <c r="U45">
+        <v>4.593</v>
+      </c>
+      <c r="V45">
+        <v>266.33</v>
+      </c>
+      <c r="W45">
+        <v>-34.779000000000003</v>
+      </c>
+      <c r="X45">
+        <v>-107.473</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>6.6760000000000002</v>
+      </c>
+      <c r="AA45">
+        <v>134.94999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>19.577000000000002</v>
+      </c>
+      <c r="D46">
+        <v>486.22800000000001</v>
+      </c>
+      <c r="E46">
+        <v>226.428</v>
+      </c>
+      <c r="F46">
+        <v>196.809</v>
+      </c>
+      <c r="G46">
+        <v>633.58500000000004</v>
+      </c>
+      <c r="H46">
+        <v>8682.8510000000006</v>
+      </c>
+      <c r="I46">
+        <v>187.428</v>
+      </c>
+      <c r="J46">
+        <v>2740.3919999999998</v>
+      </c>
+      <c r="K46">
+        <v>286.3</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>827.28700000000003</v>
+      </c>
+      <c r="O46">
+        <v>5882.11</v>
+      </c>
+      <c r="P46">
+        <v>3138.33</v>
+      </c>
+      <c r="Q46">
+        <v>-1.054</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2424</v>
+      </c>
+      <c r="T46">
+        <v>2800.741</v>
+      </c>
+      <c r="U46">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="V46">
+        <v>124.919</v>
+      </c>
+      <c r="W46">
+        <v>-35.607999999999997</v>
+      </c>
+      <c r="X46">
+        <v>56.798000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>49.524000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>1.536</v>
+      </c>
+      <c r="AA46">
+        <v>19.577000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>27.524000000000001</v>
+      </c>
+      <c r="D47">
+        <v>475.67700000000002</v>
+      </c>
+      <c r="E47">
+        <v>197.82599999999999</v>
+      </c>
+      <c r="F47">
+        <v>191.97900000000001</v>
+      </c>
+      <c r="G47">
+        <v>631.851</v>
+      </c>
+      <c r="H47">
+        <v>8841.3909999999996</v>
+      </c>
+      <c r="I47">
+        <v>202.154</v>
+      </c>
+      <c r="J47">
+        <v>2894.2249999999999</v>
+      </c>
+      <c r="K47">
+        <v>281.66699999999997</v>
+      </c>
+      <c r="L47">
+        <v>-4.633</v>
+      </c>
+      <c r="M47">
+        <v>-94.396000000000001</v>
+      </c>
+      <c r="N47">
+        <v>873.34100000000001</v>
+      </c>
+      <c r="O47">
+        <v>6052.4260000000004</v>
+      </c>
+      <c r="P47">
+        <v>3224.2860000000001</v>
+      </c>
+      <c r="Q47">
+        <v>0.187</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2788.9650000000001</v>
+      </c>
+      <c r="U47">
+        <v>3.726</v>
+      </c>
+      <c r="V47">
+        <v>63.963000000000001</v>
+      </c>
+      <c r="W47">
+        <v>-38.884</v>
+      </c>
+      <c r="X47">
+        <v>110.22199999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-2.5019999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>27.524000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>62.734000000000002</v>
+      </c>
+      <c r="D48">
+        <v>566.26199999999994</v>
+      </c>
+      <c r="E48">
+        <v>277.488</v>
+      </c>
+      <c r="F48">
+        <v>262.11200000000002</v>
+      </c>
+      <c r="G48">
+        <v>716.28499999999997</v>
+      </c>
+      <c r="H48">
+        <v>9042.8209999999999</v>
+      </c>
+      <c r="I48">
+        <v>151.227</v>
+      </c>
+      <c r="J48">
+        <v>3042.4720000000002</v>
+      </c>
+      <c r="K48">
+        <v>348.40699999999998</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>850.79399999999998</v>
+      </c>
+      <c r="O48">
+        <v>6248.7070000000003</v>
+      </c>
+      <c r="P48">
+        <v>3436.732</v>
+      </c>
+      <c r="Q48">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2794.114</v>
+      </c>
+      <c r="U48">
+        <v>6.6539999999999999</v>
+      </c>
+      <c r="V48">
+        <v>39.216000000000001</v>
+      </c>
+      <c r="W48">
+        <v>-39.826000000000001</v>
+      </c>
+      <c r="X48">
+        <v>209.50399999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-2.0030000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>62.734000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>139.28100000000001</v>
+      </c>
+      <c r="D49">
+        <v>695.75800000000004</v>
+      </c>
+      <c r="E49">
+        <v>267.21800000000002</v>
+      </c>
+      <c r="F49">
+        <v>369.25099999999998</v>
+      </c>
+      <c r="G49">
+        <v>678.19200000000001</v>
+      </c>
+      <c r="H49">
+        <v>9136.51</v>
+      </c>
+      <c r="I49">
+        <v>169.30600000000001</v>
+      </c>
+      <c r="J49">
+        <v>3061.6390000000001</v>
+      </c>
+      <c r="K49">
+        <v>214.756</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>740.87099999999998</v>
+      </c>
+      <c r="O49">
+        <v>6237.7449999999999</v>
+      </c>
+      <c r="P49">
+        <v>3359.9720000000002</v>
+      </c>
+      <c r="Q49">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2898.7649999999999</v>
+      </c>
+      <c r="U49">
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="V49">
+        <v>350.77699999999999</v>
+      </c>
+      <c r="W49">
+        <v>-39.875999999999998</v>
+      </c>
+      <c r="X49">
+        <v>-171.52699999999999</v>
+      </c>
+      <c r="Y49">
+        <v>53.915999999999997</v>
+      </c>
+      <c r="Z49">
+        <v>-2.0449999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>139.28100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>45.606999999999999</v>
+      </c>
+      <c r="D50">
+        <v>523.77200000000005</v>
+      </c>
+      <c r="E50">
+        <v>224.43899999999999</v>
+      </c>
+      <c r="F50">
+        <v>339.53500000000003</v>
+      </c>
+      <c r="G50">
+        <v>643.07500000000005</v>
+      </c>
+      <c r="H50">
+        <v>9265.2309999999998</v>
+      </c>
+      <c r="I50">
+        <v>180.82499999999999</v>
+      </c>
+      <c r="J50">
+        <v>3042.0140000000001</v>
+      </c>
+      <c r="K50">
+        <v>339.2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>846.14099999999996</v>
+      </c>
+      <c r="O50">
+        <v>6354.9759999999997</v>
+      </c>
+      <c r="P50">
+        <v>3407.1559999999999</v>
+      </c>
+      <c r="Q50">
+        <v>1.45</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>2313</v>
+      </c>
+      <c r="T50">
+        <v>2910.2550000000001</v>
+      </c>
+      <c r="U50">
+        <v>5.8289999999999997</v>
+      </c>
+      <c r="V50">
+        <v>145.15</v>
+      </c>
+      <c r="W50">
+        <v>-39.595999999999997</v>
+      </c>
+      <c r="X50">
+        <v>52.322000000000003</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-2.1190000000000002</v>
+      </c>
+      <c r="AA50">
+        <v>45.606999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>51.143999999999998</v>
+      </c>
+      <c r="D51">
+        <v>546.21199999999999</v>
+      </c>
+      <c r="E51">
+        <v>226.25</v>
+      </c>
+      <c r="F51">
+        <v>266.50900000000001</v>
+      </c>
+      <c r="G51">
+        <v>623.678</v>
+      </c>
+      <c r="H51">
+        <v>9390.4840000000004</v>
+      </c>
+      <c r="I51">
+        <v>199.196</v>
+      </c>
+      <c r="J51">
+        <v>3263.953</v>
+      </c>
+      <c r="K51">
+        <v>143.065</v>
+      </c>
+      <c r="L51">
+        <v>-196.31800000000001</v>
+      </c>
+      <c r="M51">
+        <v>-104.825</v>
+      </c>
+      <c r="N51">
+        <v>726.24900000000002</v>
+      </c>
+      <c r="O51">
+        <v>6466.8620000000001</v>
+      </c>
+      <c r="P51">
+        <v>3434.739</v>
+      </c>
+      <c r="Q51">
+        <v>-0.186</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>2290</v>
+      </c>
+      <c r="T51">
+        <v>2923.6219999999998</v>
+      </c>
+      <c r="U51">
+        <v>5.6429999999999998</v>
+      </c>
+      <c r="V51">
+        <v>193.63399999999999</v>
+      </c>
+      <c r="W51">
+        <v>-39.963999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-93.18</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>51.143999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>67.188999999999993</v>
+      </c>
+      <c r="D52">
+        <v>569.58900000000006</v>
+      </c>
+      <c r="E52">
+        <v>239.31899999999999</v>
+      </c>
+      <c r="F52">
+        <v>284.29000000000002</v>
+      </c>
+      <c r="G52">
+        <v>664.48099999999999</v>
+      </c>
+      <c r="H52">
+        <v>9483.7450000000008</v>
+      </c>
+      <c r="I52">
+        <v>149.68</v>
+      </c>
+      <c r="J52">
+        <v>3163.8449999999998</v>
+      </c>
+      <c r="K52">
+        <v>410</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>887.33600000000001</v>
+      </c>
+      <c r="O52">
+        <v>6544.0950000000003</v>
+      </c>
+      <c r="P52">
+        <v>3601.6179999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-1.67</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>2286</v>
+      </c>
+      <c r="T52">
+        <v>2939.65</v>
+      </c>
+      <c r="U52">
+        <v>3.9729999999999999</v>
+      </c>
+      <c r="V52">
+        <v>37.676000000000002</v>
+      </c>
+      <c r="W52">
+        <v>-40.921999999999997</v>
+      </c>
+      <c r="X52">
+        <v>161.33199999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>67.188000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>133.125</v>
+      </c>
+      <c r="D53">
+        <v>694.97400000000005</v>
+      </c>
+      <c r="E53">
+        <v>266.53300000000002</v>
+      </c>
+      <c r="F53">
+        <v>377.72</v>
+      </c>
+      <c r="G53">
+        <v>694.27200000000005</v>
+      </c>
+      <c r="H53">
+        <v>9605.8349999999991</v>
+      </c>
+      <c r="I53">
+        <v>178.21299999999999</v>
+      </c>
+      <c r="J53">
+        <v>3163.8710000000001</v>
+      </c>
+      <c r="K53">
+        <v>52.1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>854.09500000000003</v>
+      </c>
+      <c r="O53">
+        <v>6568.6350000000002</v>
+      </c>
+      <c r="P53">
+        <v>3493.7350000000001</v>
+      </c>
+      <c r="Q53">
+        <v>5.95</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>2279</v>
+      </c>
+      <c r="T53">
+        <v>3037.2</v>
+      </c>
+      <c r="U53">
+        <v>9.923</v>
+      </c>
+      <c r="V53">
+        <v>321.8</v>
+      </c>
+      <c r="W53">
+        <v>-40.988999999999997</v>
+      </c>
+      <c r="X53">
+        <v>-199.75399999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-2.694</v>
+      </c>
+      <c r="AA53">
+        <v>133.125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>41.061999999999998</v>
+      </c>
+      <c r="D54">
+        <v>559.87800000000004</v>
+      </c>
+      <c r="E54">
+        <v>250.036</v>
+      </c>
+      <c r="F54">
+        <v>269.67399999999998</v>
+      </c>
+      <c r="G54">
+        <v>706.82500000000005</v>
+      </c>
+      <c r="H54">
+        <v>9597.1380000000008</v>
+      </c>
+      <c r="I54">
+        <v>233.351</v>
+      </c>
+      <c r="J54">
+        <v>3163.76</v>
+      </c>
+      <c r="K54">
+        <v>134.6</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>955.42600000000004</v>
+      </c>
+      <c r="O54">
+        <v>6528.607</v>
+      </c>
+      <c r="P54">
+        <v>3575.8389999999999</v>
+      </c>
+      <c r="Q54">
+        <v>-5.4359999999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2302</v>
+      </c>
+      <c r="T54">
+        <v>3068.5309999999999</v>
+      </c>
+      <c r="U54">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="V54">
+        <v>149.69300000000001</v>
+      </c>
+      <c r="W54">
+        <v>-41.029000000000003</v>
+      </c>
+      <c r="X54">
+        <v>69.358000000000004</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-2.2530000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>41.061999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>68.954999999999998</v>
+      </c>
+      <c r="D55">
+        <v>628.55600000000004</v>
+      </c>
+      <c r="E55">
+        <v>231.78200000000001</v>
+      </c>
+      <c r="F55">
+        <v>310.96899999999999</v>
+      </c>
+      <c r="G55">
+        <v>706.82399999999996</v>
+      </c>
+      <c r="H55">
+        <v>9710.4590000000007</v>
+      </c>
+      <c r="I55">
+        <v>191.21600000000001</v>
+      </c>
+      <c r="J55">
+        <v>3135.9090000000001</v>
+      </c>
+      <c r="K55">
+        <v>178.9</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-28.943000000000001</v>
+      </c>
+      <c r="N55">
+        <v>1011.907</v>
+      </c>
+      <c r="O55">
+        <v>6604.9549999999999</v>
+      </c>
+      <c r="P55">
+        <v>3593.0650000000001</v>
+      </c>
+      <c r="Q55">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3105.5039999999999</v>
+      </c>
+      <c r="U55">
+        <v>9.0649999999999995</v>
+      </c>
+      <c r="V55">
+        <v>238.31200000000001</v>
+      </c>
+      <c r="W55">
+        <v>-41.591000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-17.696000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>68.954999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>53.472000000000001</v>
+      </c>
+      <c r="D56">
+        <v>612.66800000000001</v>
+      </c>
+      <c r="E56">
+        <v>259.20499999999998</v>
+      </c>
+      <c r="F56">
+        <v>290.517</v>
+      </c>
+      <c r="G56">
+        <v>748.15300000000002</v>
+      </c>
+      <c r="H56">
+        <v>9871.2420000000002</v>
+      </c>
+      <c r="I56">
+        <v>171.16200000000001</v>
+      </c>
+      <c r="J56">
+        <v>3382.5250000000001</v>
+      </c>
+      <c r="K56">
+        <v>343.3</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>859.654</v>
+      </c>
+      <c r="O56">
+        <v>6740.299</v>
+      </c>
+      <c r="P56">
+        <v>3753.9229999999998</v>
+      </c>
+      <c r="Q56">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3130.9430000000002</v>
+      </c>
+      <c r="U56">
+        <v>10.750999999999999</v>
+      </c>
+      <c r="V56">
+        <v>45.002000000000002</v>
+      </c>
+      <c r="W56">
+        <v>-42.828000000000003</v>
+      </c>
+      <c r="X56">
+        <v>180.88399999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AA56">
+        <v>53.472999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>147.38300000000001</v>
+      </c>
+      <c r="D57">
+        <v>764.04</v>
+      </c>
+      <c r="E57">
+        <v>300.12</v>
+      </c>
+      <c r="F57">
+        <v>423.35199999999998</v>
+      </c>
+      <c r="G57">
+        <v>749.33799999999997</v>
+      </c>
+      <c r="H57">
+        <v>10073.664000000001</v>
+      </c>
+      <c r="I57">
+        <v>194.66300000000001</v>
+      </c>
+      <c r="J57">
+        <v>3381.9949999999999</v>
+      </c>
+      <c r="K57">
+        <v>202.4</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>801.03899999999999</v>
+      </c>
+      <c r="O57">
+        <v>6796.2870000000003</v>
+      </c>
+      <c r="P57">
+        <v>3612.4859999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-4.9160000000000004</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3277.377</v>
+      </c>
+      <c r="U57">
+        <v>5.835</v>
+      </c>
+      <c r="V57">
+        <v>366.89800000000002</v>
+      </c>
+      <c r="W57">
+        <v>-42.945</v>
+      </c>
+      <c r="X57">
+        <v>-170.29400000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-1.4179999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>147.38200000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>43.448999999999998</v>
+      </c>
+      <c r="D58">
+        <v>596.43899999999996</v>
+      </c>
+      <c r="E58">
+        <v>267.327</v>
+      </c>
+      <c r="F58">
+        <v>285.30200000000002</v>
+      </c>
+      <c r="G58">
+        <v>669.40300000000002</v>
+      </c>
+      <c r="H58">
+        <v>10288.906000000001</v>
+      </c>
+      <c r="I58">
+        <v>219.351</v>
+      </c>
+      <c r="J58">
+        <v>3353.645</v>
+      </c>
+      <c r="K58">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>849.63099999999997</v>
+      </c>
+      <c r="O58">
+        <v>6987.5990000000002</v>
+      </c>
+      <c r="P58">
+        <v>3639.1779999999999</v>
+      </c>
+      <c r="Q58">
+        <v>-1.2789999999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2411</v>
+      </c>
+      <c r="T58">
+        <v>3301.3069999999998</v>
+      </c>
+      <c r="U58">
+        <v>4.556</v>
+      </c>
+      <c r="V58">
+        <v>174.143</v>
+      </c>
+      <c r="W58">
+        <v>-44.143000000000001</v>
+      </c>
+      <c r="X58">
+        <v>21.568000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-8</v>
+      </c>
+      <c r="AA58">
+        <v>43.448999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>50.98</v>
+      </c>
+      <c r="D59">
+        <v>590.80700000000002</v>
+      </c>
+      <c r="E59">
+        <v>236.285</v>
+      </c>
+      <c r="F59">
+        <v>293.43299999999999</v>
+      </c>
+      <c r="G59">
+        <v>674.56500000000005</v>
+      </c>
+      <c r="H59">
+        <v>10409.735000000001</v>
+      </c>
+      <c r="I59">
+        <v>203.13800000000001</v>
+      </c>
+      <c r="J59">
+        <v>3228.931</v>
+      </c>
+      <c r="K59">
+        <v>425.4</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-154.71</v>
+      </c>
+      <c r="N59">
+        <v>1036.702</v>
+      </c>
+      <c r="O59">
+        <v>7094.3869999999997</v>
+      </c>
+      <c r="P59">
+        <v>3682.6460000000002</v>
+      </c>
+      <c r="Q59">
+        <v>1.518</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3315.348</v>
+      </c>
+      <c r="U59">
+        <v>6.0739999999999998</v>
+      </c>
+      <c r="V59">
+        <v>213.56800000000001</v>
+      </c>
+      <c r="W59">
+        <v>-43.786999999999999</v>
+      </c>
+      <c r="X59">
+        <v>-25.756</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>50.98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>63.71</v>
+      </c>
+      <c r="D60">
+        <v>589.56299999999999</v>
+      </c>
+      <c r="E60">
+        <v>266.33</v>
+      </c>
+      <c r="F60">
+        <v>309.392</v>
+      </c>
+      <c r="G60">
+        <v>753.53200000000004</v>
+      </c>
+      <c r="H60">
+        <v>10548.159</v>
+      </c>
+      <c r="I60">
+        <v>185.30699999999999</v>
+      </c>
+      <c r="J60">
+        <v>3229.828</v>
+      </c>
+      <c r="K60">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>844.92499999999995</v>
+      </c>
+      <c r="O60">
+        <v>6963.6949999999997</v>
+      </c>
+      <c r="P60">
+        <v>3565.2429999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-3.8079999999999998</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3584.4639999999999</v>
+      </c>
+      <c r="U60">
+        <v>2.266</v>
+      </c>
+      <c r="V60">
+        <v>19.443999999999999</v>
+      </c>
+      <c r="W60">
+        <v>-45.247999999999998</v>
+      </c>
+      <c r="X60">
+        <v>139.38200000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>63.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>138.00299999999999</v>
+      </c>
+      <c r="D61">
+        <v>732.82899999999995</v>
+      </c>
+      <c r="E61">
+        <v>288.76400000000001</v>
+      </c>
+      <c r="F61">
+        <v>430.95499999999998</v>
+      </c>
+      <c r="G61">
+        <v>757.68299999999999</v>
+      </c>
+      <c r="H61">
+        <v>10584.079</v>
+      </c>
+      <c r="I61">
+        <v>175.309</v>
+      </c>
+      <c r="J61">
+        <v>3080.0230000000001</v>
+      </c>
+      <c r="K61">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>878.69299999999998</v>
+      </c>
+      <c r="O61">
+        <v>6908.1580000000004</v>
+      </c>
+      <c r="P61">
+        <v>3411.9319999999998</v>
+      </c>
+      <c r="Q61">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3675.9209999999998</v>
+      </c>
+      <c r="U61">
+        <v>3.8290000000000002</v>
+      </c>
+      <c r="V61">
+        <v>351.85199999999998</v>
+      </c>
+      <c r="W61">
+        <v>-48.581000000000003</v>
+      </c>
+      <c r="X61">
+        <v>-263.24299999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>138.00299999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>39.235999999999997</v>
+      </c>
+      <c r="D62">
+        <v>545.96500000000003</v>
+      </c>
+      <c r="E62">
+        <v>258.286</v>
+      </c>
+      <c r="F62">
+        <v>304.98599999999999</v>
+      </c>
+      <c r="G62">
+        <v>717.14099999999996</v>
+      </c>
+      <c r="H62">
+        <v>10705.665999999999</v>
+      </c>
+      <c r="I62">
+        <v>220.96899999999999</v>
+      </c>
+      <c r="J62">
+        <v>3302.047</v>
+      </c>
+      <c r="K62">
+        <v>250.3</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>836.93499999999995</v>
+      </c>
+      <c r="O62">
+        <v>7033.7030000000004</v>
+      </c>
+      <c r="P62">
+        <v>3580.6559999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2330</v>
+      </c>
+      <c r="T62">
+        <v>3671.9630000000002</v>
+      </c>
+      <c r="U62">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="V62">
+        <v>130.98599999999999</v>
+      </c>
+      <c r="W62">
+        <v>-48.503999999999998</v>
+      </c>
+      <c r="X62">
+        <v>82.146000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-0.57499999999999996</v>
+      </c>
+      <c r="AA62">
+        <v>39.235999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>65.584999999999994</v>
+      </c>
+      <c r="D63">
+        <v>569.45000000000005</v>
+      </c>
+      <c r="E63">
+        <v>225.09</v>
+      </c>
+      <c r="F63">
+        <v>330.875</v>
+      </c>
+      <c r="G63">
+        <v>675.57899999999995</v>
+      </c>
+      <c r="H63">
+        <v>10805.597</v>
+      </c>
+      <c r="I63">
+        <v>230.30699999999999</v>
+      </c>
+      <c r="J63">
+        <v>3150.4780000000001</v>
+      </c>
+      <c r="K63">
+        <v>316.8</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-213.86699999999999</v>
+      </c>
+      <c r="N63">
+        <v>1073.933</v>
+      </c>
+      <c r="O63">
+        <v>7118.3919999999998</v>
+      </c>
+      <c r="P63">
+        <v>3619.12</v>
+      </c>
+      <c r="Q63">
+        <v>0.24</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3687.2049999999999</v>
+      </c>
+      <c r="U63">
+        <v>3.4710000000000001</v>
+      </c>
+      <c r="V63">
+        <v>238.876</v>
+      </c>
+      <c r="W63">
+        <v>-49.664999999999999</v>
+      </c>
+      <c r="X63">
+        <v>-40.875</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="AA63">
+        <v>65.584999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>72.34</v>
+      </c>
+      <c r="D64">
+        <v>621.44799999999998</v>
+      </c>
+      <c r="E64">
+        <v>298.84100000000001</v>
+      </c>
+      <c r="F64">
+        <v>361.97199999999998</v>
+      </c>
+      <c r="G64">
+        <v>741.86800000000005</v>
+      </c>
+      <c r="H64">
+        <v>10970.742</v>
+      </c>
+      <c r="I64">
+        <v>178.374</v>
+      </c>
+      <c r="J64">
+        <v>3498.9259999999999</v>
+      </c>
+      <c r="K64">
+        <v>177</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>821.51099999999997</v>
+      </c>
+      <c r="O64">
+        <v>7255.991</v>
+      </c>
+      <c r="P64">
+        <v>3827.768</v>
+      </c>
+      <c r="Q64">
+        <v>1.742</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3714.7510000000002</v>
+      </c>
+      <c r="U64">
+        <v>5.2130000000000001</v>
+      </c>
+      <c r="V64">
+        <v>89.805000000000007</v>
+      </c>
+      <c r="W64">
+        <v>-51.472000000000001</v>
+      </c>
+      <c r="X64">
+        <v>210.13900000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>72.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>154.72</v>
+      </c>
+      <c r="D65">
+        <v>764.654</v>
+      </c>
+      <c r="E65">
+        <v>322.38600000000002</v>
+      </c>
+      <c r="F65">
+        <v>464.28399999999999</v>
+      </c>
+      <c r="G65">
+        <v>762.303</v>
+      </c>
+      <c r="H65">
+        <v>11244.418</v>
+      </c>
+      <c r="I65">
+        <v>228.04599999999999</v>
+      </c>
+      <c r="J65">
+        <v>3499.4389999999999</v>
+      </c>
+      <c r="K65">
+        <v>182.9</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>917.02800000000002</v>
+      </c>
+      <c r="O65">
+        <v>7420</v>
+      </c>
+      <c r="P65">
+        <v>3834.181</v>
+      </c>
+      <c r="Q65">
+        <v>-1.276</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3824.4180000000001</v>
+      </c>
+      <c r="U65">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="V65">
+        <v>363.892</v>
+      </c>
+      <c r="W65">
+        <v>-51.65</v>
+      </c>
+      <c r="X65">
+        <v>-46.113</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>154.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>53.932000000000002</v>
+      </c>
+      <c r="D66">
+        <v>606.53499999999997</v>
+      </c>
+      <c r="E66">
+        <v>288.57900000000001</v>
+      </c>
+      <c r="F66">
+        <v>316.38400000000001</v>
+      </c>
+      <c r="G66">
+        <v>768.38199999999995</v>
+      </c>
+      <c r="H66">
+        <v>11487.074000000001</v>
+      </c>
+      <c r="I66">
+        <v>220.52199999999999</v>
+      </c>
+      <c r="J66">
+        <v>3499.8789999999999</v>
+      </c>
+      <c r="K66">
+        <v>366.7</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1047.193</v>
+      </c>
+      <c r="O66">
+        <v>7653.884</v>
+      </c>
+      <c r="P66">
+        <v>4018.4209999999998</v>
+      </c>
+      <c r="Q66">
+        <v>-0.871</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>2254</v>
+      </c>
+      <c r="T66">
+        <v>3833.19</v>
+      </c>
+      <c r="U66">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="V66">
+        <v>129.84700000000001</v>
+      </c>
+      <c r="W66">
+        <v>-51.552999999999997</v>
+      </c>
+      <c r="X66">
+        <v>67.024000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>53.932000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>59.661000000000001</v>
+      </c>
+      <c r="D67">
+        <v>572.57399999999996</v>
+      </c>
+      <c r="E67">
+        <v>237.03200000000001</v>
+      </c>
+      <c r="F67">
+        <v>263.12599999999998</v>
+      </c>
+      <c r="G67">
+        <v>721.1</v>
+      </c>
+      <c r="H67">
+        <v>11515.59</v>
+      </c>
+      <c r="I67">
+        <v>162.23099999999999</v>
+      </c>
+      <c r="J67">
+        <v>3768.415</v>
+      </c>
+      <c r="K67">
+        <v>226.3</v>
+      </c>
+      <c r="L67">
+        <v>-140.40700000000001</v>
+      </c>
+      <c r="M67">
+        <v>-152.63999999999999</v>
+      </c>
+      <c r="N67">
+        <v>766.73800000000006</v>
+      </c>
+      <c r="O67">
+        <v>7684.4210000000003</v>
+      </c>
+      <c r="P67">
+        <v>4023.2530000000002</v>
+      </c>
+      <c r="Q67">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3831.1689999999999</v>
+      </c>
+      <c r="U67">
+        <v>3.359</v>
+      </c>
+      <c r="V67">
+        <v>236.72499999999999</v>
+      </c>
+      <c r="W67">
+        <v>-52.75</v>
+      </c>
+      <c r="X67">
+        <v>-60.707999999999998</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>59.661000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>72.039000000000001</v>
+      </c>
+      <c r="D68">
+        <v>609.29999999999995</v>
+      </c>
+      <c r="E68">
+        <v>274.42599999999999</v>
+      </c>
+      <c r="F68">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="G68">
+        <v>740.226</v>
+      </c>
+      <c r="H68">
+        <v>11596.15</v>
+      </c>
+      <c r="I68">
+        <v>139.62799999999999</v>
+      </c>
+      <c r="J68">
+        <v>3768.8330000000001</v>
+      </c>
+      <c r="K68">
+        <v>329.2</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>774.17200000000003</v>
+      </c>
+      <c r="O68">
+        <v>7741.2709999999997</v>
+      </c>
+      <c r="P68">
+        <v>4126.5709999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-0.193</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3854.8789999999999</v>
+      </c>
+      <c r="U68">
+        <v>3.21</v>
+      </c>
+      <c r="V68">
+        <v>126.97499999999999</v>
+      </c>
+      <c r="W68">
+        <v>-56.65</v>
+      </c>
+      <c r="X68">
+        <v>96.608000000000004</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="D69">
+        <v>794.3</v>
+      </c>
+      <c r="E69">
+        <v>308.27499999999998</v>
+      </c>
+      <c r="F69">
+        <v>401.3</v>
+      </c>
+      <c r="G69">
+        <v>733.04899999999998</v>
+      </c>
+      <c r="H69">
+        <v>11625.375</v>
+      </c>
+      <c r="I69">
+        <v>147.93299999999999</v>
+      </c>
+      <c r="J69">
+        <v>3768.2849999999999</v>
+      </c>
+      <c r="K69">
+        <v>189.1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>686.846</v>
+      </c>
+      <c r="O69">
+        <v>7746.4750000000004</v>
+      </c>
+      <c r="P69">
+        <v>3985.9189999999999</v>
+      </c>
+      <c r="Q69">
+        <v>0.2</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3878.9</v>
+      </c>
+      <c r="U69">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="V69">
+        <v>379</v>
+      </c>
+      <c r="W69">
+        <v>-56.9</v>
+      </c>
+      <c r="X69">
+        <v>-196.9</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>158.30000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>33.9</v>
+      </c>
+      <c r="D70">
+        <v>594.79999999999995</v>
+      </c>
+      <c r="E70">
+        <v>235.3</v>
+      </c>
+      <c r="F70">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="G70">
+        <v>727</v>
+      </c>
+      <c r="H70">
+        <v>11624.4</v>
+      </c>
+      <c r="I70">
+        <v>204.2</v>
+      </c>
+      <c r="J70">
+        <v>3769</v>
+      </c>
+      <c r="K70">
+        <v>275.7</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>823.7</v>
+      </c>
+      <c r="O70">
+        <v>7764</v>
+      </c>
+      <c r="P70">
+        <v>4073.2</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>2205</v>
+      </c>
+      <c r="T70">
+        <v>3860.4</v>
+      </c>
+      <c r="U70">
+        <v>3.4</v>
+      </c>
+      <c r="V70">
+        <v>170</v>
+      </c>
+      <c r="W70">
+        <v>-56.8</v>
+      </c>
+      <c r="X70">
+        <v>29.4</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>60.5</v>
+      </c>
+      <c r="D71">
+        <v>600.20000000000005</v>
+      </c>
+      <c r="E71">
+        <v>244.411</v>
+      </c>
+      <c r="F71">
+        <v>257</v>
+      </c>
+      <c r="G71">
+        <v>683.24800000000005</v>
+      </c>
+      <c r="H71">
+        <v>11620.369000000001</v>
+      </c>
+      <c r="I71">
+        <v>139.30799999999999</v>
+      </c>
+      <c r="J71">
+        <v>3739.3530000000001</v>
+      </c>
+      <c r="K71">
+        <v>289.8</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-30.2</v>
+      </c>
+      <c r="N71">
+        <v>830.34900000000005</v>
+      </c>
+      <c r="O71">
+        <v>7755.9229999999998</v>
+      </c>
+      <c r="P71">
+        <v>4059.49</v>
+      </c>
+      <c r="Q71">
+        <v>7.8</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3864.4459999999999</v>
+      </c>
+      <c r="U71">
+        <v>11.166</v>
+      </c>
+      <c r="V71">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="W71">
+        <v>-57.4</v>
+      </c>
+      <c r="X71">
+        <v>-77.7</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>101.8</v>
+      </c>
+      <c r="D72">
+        <v>893.4</v>
+      </c>
+      <c r="E72">
+        <v>421</v>
+      </c>
+      <c r="F72">
+        <v>369</v>
+      </c>
+      <c r="G72">
+        <v>2937.3</v>
+      </c>
+      <c r="H72">
+        <v>26659.3</v>
+      </c>
+      <c r="I72">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="J72">
+        <v>6692.2</v>
+      </c>
+      <c r="K72">
+        <v>1274.3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3077.9</v>
+      </c>
+      <c r="O72">
+        <v>15763.9</v>
+      </c>
+      <c r="P72">
+        <v>8816.1</v>
+      </c>
+      <c r="Q72">
+        <v>1268.9000000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>10895.4</v>
+      </c>
+      <c r="U72">
+        <v>1280.0999999999999</v>
+      </c>
+      <c r="V72">
+        <v>137.6</v>
+      </c>
+      <c r="W72">
+        <v>-170.9</v>
+      </c>
+      <c r="X72">
+        <v>110.3</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>355</v>
+      </c>
+      <c r="D73">
+        <v>1582.5</v>
+      </c>
+      <c r="E73">
+        <v>414.1</v>
+      </c>
+      <c r="F73">
+        <v>826.3</v>
+      </c>
+      <c r="G73">
+        <v>2319</v>
+      </c>
+      <c r="H73">
+        <v>26075.200000000001</v>
+      </c>
+      <c r="I73">
+        <v>303.7</v>
+      </c>
+      <c r="J73">
+        <v>6690.9</v>
+      </c>
+      <c r="K73">
+        <v>870.9</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2659.2</v>
+      </c>
+      <c r="O73">
+        <v>15426.4</v>
+      </c>
+      <c r="P73">
+        <v>8301.7000000000007</v>
+      </c>
+      <c r="Q73">
+        <v>-600.4</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>10648.8</v>
+      </c>
+      <c r="U73">
+        <v>679.7</v>
+      </c>
+      <c r="V73">
+        <v>794.4</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-1122.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>18.5</v>
+      </c>
+      <c r="D74">
+        <v>1199.8</v>
+      </c>
+      <c r="E74">
+        <v>98.7</v>
+      </c>
+      <c r="F74">
+        <v>461.3</v>
+      </c>
+      <c r="G74">
+        <v>1681</v>
+      </c>
+      <c r="H74">
+        <v>25598.1</v>
+      </c>
+      <c r="I74">
+        <v>451.5</v>
+      </c>
+      <c r="J74">
+        <v>6687.4</v>
+      </c>
+      <c r="K74">
+        <v>1103.5999999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2867.2</v>
+      </c>
+      <c r="O74">
+        <v>15607.4</v>
+      </c>
+      <c r="P74">
+        <v>8526.7000000000007</v>
+      </c>
+      <c r="Q74">
+        <v>-519.5</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>4832</v>
+      </c>
+      <c r="T74">
+        <v>9990.7000000000007</v>
+      </c>
+      <c r="U74">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="V74">
+        <v>306.2</v>
+      </c>
+      <c r="W74">
+        <v>-124.6</v>
+      </c>
+      <c r="X74">
+        <v>-448.3</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>99.5</v>
+      </c>
+      <c r="D75">
+        <v>1216.9000000000001</v>
+      </c>
+      <c r="E75">
+        <v>87.3</v>
+      </c>
+      <c r="F75">
+        <v>531.29999999999995</v>
+      </c>
+      <c r="G75">
+        <v>1927.6</v>
+      </c>
+      <c r="H75">
+        <v>26060.7</v>
+      </c>
+      <c r="I75">
+        <v>293.7</v>
+      </c>
+      <c r="J75">
+        <v>7144.7</v>
+      </c>
+      <c r="K75">
+        <v>1670</v>
+      </c>
+      <c r="L75">
+        <v>-6</v>
+      </c>
+      <c r="M75">
+        <v>-61.5</v>
+      </c>
+      <c r="N75">
+        <v>3335.4</v>
+      </c>
+      <c r="O75">
+        <v>16669</v>
+      </c>
+      <c r="P75">
+        <v>9720.5</v>
+      </c>
+      <c r="Q75">
+        <v>387.6</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9391.7000000000007</v>
+      </c>
+      <c r="U75">
+        <v>133.6</v>
+      </c>
+      <c r="V75">
+        <v>362.1</v>
+      </c>
+      <c r="W75">
+        <v>-119.8</v>
+      </c>
+      <c r="X75">
+        <v>296.89999999999998</v>
+      </c>
+      <c r="Y75">
+        <v>132.9</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="D76">
+        <v>1221.7</v>
+      </c>
+      <c r="E76">
+        <v>185.7</v>
+      </c>
+      <c r="F76">
+        <v>578.6</v>
+      </c>
+      <c r="G76">
+        <v>1539.4</v>
+      </c>
+      <c r="H76">
+        <v>25718.400000000001</v>
+      </c>
+      <c r="I76">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="J76">
+        <v>7141.3</v>
+      </c>
+      <c r="K76">
+        <v>2551</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3482.8</v>
+      </c>
+      <c r="O76">
+        <v>16863.7</v>
+      </c>
+      <c r="P76">
+        <v>9912.2000000000007</v>
+      </c>
+      <c r="Q76">
+        <v>-440.9</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8854.7000000000007</v>
+      </c>
+      <c r="U76">
+        <v>107</v>
+      </c>
+      <c r="V76">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="W76">
+        <v>-115.8</v>
+      </c>
+      <c r="X76">
+        <v>-454.4</v>
+      </c>
+      <c r="Y76">
+        <v>126.9</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>139.69999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>366.8</v>
+      </c>
+      <c r="D77">
+        <v>1577.6</v>
+      </c>
+      <c r="E77">
+        <v>166.5</v>
+      </c>
+      <c r="F77">
+        <v>846.7</v>
+      </c>
+      <c r="G77">
+        <v>1512.3</v>
+      </c>
+      <c r="H77">
+        <v>25907.5</v>
+      </c>
+      <c r="I77">
+        <v>311.3</v>
+      </c>
+      <c r="J77">
+        <v>8768</v>
+      </c>
+      <c r="K77">
+        <v>755.6</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2075.1</v>
+      </c>
+      <c r="O77">
+        <v>17317.599999999999</v>
+      </c>
+      <c r="P77">
+        <v>9950</v>
+      </c>
+      <c r="Q77">
+        <v>-56.9</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>8589.9</v>
+      </c>
+      <c r="U77">
+        <v>50.1</v>
+      </c>
+      <c r="V77">
+        <v>813.6</v>
+      </c>
+      <c r="W77">
+        <v>-111.9</v>
+      </c>
+      <c r="X77">
+        <v>-627.9</v>
+      </c>
+      <c r="Y77">
+        <v>123</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>366.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>63.9</v>
+      </c>
+      <c r="D78">
+        <v>1131.5999999999999</v>
+      </c>
+      <c r="E78">
+        <v>100.7</v>
+      </c>
+      <c r="F78">
+        <v>476.2</v>
+      </c>
+      <c r="G78">
+        <v>1467.7</v>
+      </c>
+      <c r="H78">
+        <v>25975.9</v>
+      </c>
+      <c r="I78">
+        <v>528.79999999999995</v>
+      </c>
+      <c r="J78">
+        <v>8765.5</v>
+      </c>
+      <c r="K78">
+        <v>900.9</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2335.9</v>
+      </c>
+      <c r="O78">
+        <v>17430.599999999999</v>
+      </c>
+      <c r="P78">
+        <v>9949.7999999999993</v>
+      </c>
+      <c r="Q78">
+        <v>-26.9</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>4617</v>
+      </c>
+      <c r="T78">
+        <v>8545.2999999999993</v>
+      </c>
+      <c r="U78">
+        <v>23.2</v>
+      </c>
+      <c r="V78">
+        <v>301.7</v>
+      </c>
+      <c r="W78">
+        <v>-115</v>
+      </c>
+      <c r="X78">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D79">
+        <v>1116.7</v>
+      </c>
+      <c r="E79">
+        <v>56</v>
+      </c>
+      <c r="F79">
+        <v>535.29999999999995</v>
+      </c>
+      <c r="G79">
+        <v>1732.8</v>
+      </c>
+      <c r="H79">
+        <v>26184.7</v>
+      </c>
+      <c r="I79">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="J79">
+        <v>8993.5</v>
+      </c>
+      <c r="K79">
+        <v>1377</v>
+      </c>
+      <c r="L79">
+        <v>-17</v>
+      </c>
+      <c r="M79">
+        <v>-61.2</v>
+      </c>
+      <c r="N79">
+        <v>2397.6999999999998</v>
+      </c>
+      <c r="O79">
+        <v>17679.3</v>
+      </c>
+      <c r="P79">
+        <v>10390.4</v>
+      </c>
+      <c r="Q79">
+        <v>281.2</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>8505.4</v>
+      </c>
+      <c r="U79">
+        <v>304.39999999999998</v>
+      </c>
+      <c r="V79">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="W79">
+        <v>-114.5</v>
+      </c>
+      <c r="X79">
+        <v>294</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>133.4</v>
+      </c>
+      <c r="D80">
+        <v>1184.7</v>
+      </c>
+      <c r="E80">
+        <v>219.9</v>
+      </c>
+      <c r="F80">
+        <v>583.79999999999995</v>
+      </c>
+      <c r="G80">
+        <v>1790.4</v>
+      </c>
+      <c r="H80">
+        <v>26250.400000000001</v>
+      </c>
+      <c r="I80">
+        <v>332.8</v>
+      </c>
+      <c r="J80">
+        <v>9281.2000000000007</v>
+      </c>
+      <c r="K80">
+        <v>764</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2086.1</v>
+      </c>
+      <c r="O80">
+        <v>17723.5</v>
+      </c>
+      <c r="P80">
+        <v>10414.799999999999</v>
+      </c>
+      <c r="Q80">
+        <v>-128.19999999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>8526.9</v>
+      </c>
+      <c r="U80">
+        <v>176.2</v>
+      </c>
+      <c r="V80">
+        <v>201.9</v>
+      </c>
+      <c r="W80">
+        <v>-114.5</v>
+      </c>
+      <c r="X80">
+        <v>-62.3</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>364.5</v>
+      </c>
+      <c r="D81">
+        <v>1517.6</v>
+      </c>
+      <c r="E81">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="F81">
+        <v>859.4</v>
+      </c>
+      <c r="G81">
+        <v>1914.7</v>
+      </c>
+      <c r="H81">
+        <v>26881.200000000001</v>
+      </c>
+      <c r="I81">
+        <v>358.9</v>
+      </c>
+      <c r="J81">
+        <v>9276.4</v>
+      </c>
+      <c r="K81">
+        <v>595</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2098.1999999999998</v>
+      </c>
+      <c r="O81">
+        <v>18097</v>
+      </c>
+      <c r="P81">
+        <v>10243.700000000001</v>
+      </c>
+      <c r="Q81">
+        <v>185.4</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8784.2000000000007</v>
+      </c>
+      <c r="U81">
+        <v>361.6</v>
+      </c>
+      <c r="V81">
+        <v>899.2</v>
+      </c>
+      <c r="W81">
+        <v>-114.6</v>
+      </c>
+      <c r="X81">
+        <v>-285.10000000000002</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>364.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>51</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1094.4000000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>96</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>476</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1624.3</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>27114.799999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>654</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>9190.9</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>675</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2355.8000000000002</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>18396.3</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>10459.6</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-216.7</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>5133</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>8718.5</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>144.9</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>332.1</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-121.4</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-45</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>118</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>51</v>
       </c>
     </row>
